--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -15,17 +15,12 @@
     <sheet name="irl" r:id="rId9" sheetId="7"/>
     <sheet name="jpn" r:id="rId10" sheetId="8"/>
     <sheet name="mex" r:id="rId11" sheetId="9"/>
-    <sheet name="nor" r:id="rId12" sheetId="10"/>
-    <sheet name="pol" r:id="rId13" sheetId="11"/>
-    <sheet name="rou" r:id="rId14" sheetId="12"/>
-    <sheet name="rus" r:id="rId15" sheetId="13"/>
-    <sheet name="swz" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="226">
   <si>
     <t>arg_teams</t>
   </si>
@@ -703,249 +698,6 @@
   </si>
   <si>
     <t>U.N.A.M.- Pumas</t>
-  </si>
-  <si>
-    <t>nor_teams</t>
-  </si>
-  <si>
-    <t>Bodo/Glimt</t>
-  </si>
-  <si>
-    <t>Brann</t>
-  </si>
-  <si>
-    <t>Haugesund</t>
-  </si>
-  <si>
-    <t>Kristiansund</t>
-  </si>
-  <si>
-    <t>Lillestrom</t>
-  </si>
-  <si>
-    <t>Mjondalen</t>
-  </si>
-  <si>
-    <t>Molde</t>
-  </si>
-  <si>
-    <t>Odd</t>
-  </si>
-  <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
-    <t>Sandefjord</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08</t>
-  </si>
-  <si>
-    <t>Stabaek</t>
-  </si>
-  <si>
-    <t>Stromsgodset</t>
-  </si>
-  <si>
-    <t>Tromso</t>
-  </si>
-  <si>
-    <t>Valerenga</t>
-  </si>
-  <si>
-    <t>Viking</t>
-  </si>
-  <si>
-    <t>pol_teams</t>
-  </si>
-  <si>
-    <t>Cracovia</t>
-  </si>
-  <si>
-    <t>Gornik Z.</t>
-  </si>
-  <si>
-    <t>Jagiellonia</t>
-  </si>
-  <si>
-    <t>Lech Poznan</t>
-  </si>
-  <si>
-    <t>Lechia Gdansk</t>
-  </si>
-  <si>
-    <t>Leczna</t>
-  </si>
-  <si>
-    <t>Legia</t>
-  </si>
-  <si>
-    <t>Piast Gliwice</t>
-  </si>
-  <si>
-    <t>Pogon Szczecin</t>
-  </si>
-  <si>
-    <t>Radomiak Radom</t>
-  </si>
-  <si>
-    <t>Rakow</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw</t>
-  </si>
-  <si>
-    <t>Stal Mielec</t>
-  </si>
-  <si>
-    <t>Termalica B-B.</t>
-  </si>
-  <si>
-    <t>Warta Poznan</t>
-  </si>
-  <si>
-    <t>Wisla</t>
-  </si>
-  <si>
-    <t>Wisla Plock</t>
-  </si>
-  <si>
-    <t>Zaglebie</t>
-  </si>
-  <si>
-    <t>rou_teams</t>
-  </si>
-  <si>
-    <t>Academica Clinceni</t>
-  </si>
-  <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti</t>
-  </si>
-  <si>
-    <t>Farul Constanta</t>
-  </si>
-  <si>
-    <t>FC Arges</t>
-  </si>
-  <si>
-    <t>FC Botosani</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti</t>
-  </si>
-  <si>
-    <t>FC Voluntari</t>
-  </si>
-  <si>
-    <t>FCSB</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias</t>
-  </si>
-  <si>
-    <t>Mioveni</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe</t>
-  </si>
-  <si>
-    <t>U Craiova 1948</t>
-  </si>
-  <si>
-    <t>Univ. Craiova</t>
-  </si>
-  <si>
-    <t>UTA Arad</t>
-  </si>
-  <si>
-    <t>rus_teams</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny</t>
-  </si>
-  <si>
-    <t>Arsenal Tula</t>
-  </si>
-  <si>
-    <t>CSKA Moscow</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara</t>
-  </si>
-  <si>
-    <t>FK Rostov</t>
-  </si>
-  <si>
-    <t>Khimki</t>
-  </si>
-  <si>
-    <t>Krasnodar</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod</t>
-  </si>
-  <si>
-    <t>Rubin Kazan</t>
-  </si>
-  <si>
-    <t>Sochi</t>
-  </si>
-  <si>
-    <t>Spartak Moscow</t>
-  </si>
-  <si>
-    <t>Ufa</t>
-  </si>
-  <si>
-    <t>Ural</t>
-  </si>
-  <si>
-    <t>Zenit</t>
-  </si>
-  <si>
-    <t>swz_teams</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t>Grasshoppers</t>
-  </si>
-  <si>
-    <t>Lausanne</t>
-  </si>
-  <si>
-    <t>Lugano</t>
-  </si>
-  <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>Servette</t>
-  </si>
-  <si>
-    <t>Sion</t>
-  </si>
-  <si>
-    <t>St. Gallen</t>
-  </si>
-  <si>
-    <t>Young Boys</t>
-  </si>
-  <si>
-    <t>Zurich</t>
   </si>
 </sst>
 </file>
@@ -4374,6373 +4126,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -10811,6 +4196,15 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -10862,19 +4256,28 @@
         <v>5.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -10941,6 +4344,15 @@
       <c r="U3" t="n">
         <v>11.0</v>
       </c>
+      <c r="V3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -11006,6 +4418,15 @@
       <c r="U4" t="n">
         <v>12.0</v>
       </c>
+      <c r="V4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -11063,13 +4484,22 @@
         <v>6.0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -11131,10 +4561,19 @@
         <v>8.0</v>
       </c>
       <c r="T6" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="U6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -11201,6 +4640,15 @@
       <c r="U7" t="n">
         <v>9.0</v>
       </c>
+      <c r="V7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -11258,13 +4706,22 @@
         <v>8.0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -11320,16 +4777,25 @@
         <v>5.0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="S9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -11396,6 +4862,15 @@
       <c r="U10" t="n">
         <v>1.0</v>
       </c>
+      <c r="V10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -11444,7 +4919,7 @@
         <v>2.0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q11" t="n">
         <v>2.0</v>
@@ -11453,13 +4928,22 @@
         <v>2.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T11" t="n">
         <v>2.0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -11526,6 +5010,15 @@
       <c r="U12" t="n">
         <v>10.0</v>
       </c>
+      <c r="V12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -11574,22 +5067,31 @@
         <v>3.0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -15537,6 +9039,15 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -15596,6 +9107,15 @@
       <c r="S2" t="n">
         <v>4.0</v>
       </c>
+      <c r="T2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -15655,6 +9175,15 @@
       <c r="S3" t="n">
         <v>7.0</v>
       </c>
+      <c r="T3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -15714,6 +9243,15 @@
       <c r="S4" t="n">
         <v>3.0</v>
       </c>
+      <c r="T4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -15773,6 +9311,15 @@
       <c r="S5" t="n">
         <v>2.0</v>
       </c>
+      <c r="T5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -15832,6 +9379,15 @@
       <c r="S6" t="n">
         <v>1.0</v>
       </c>
+      <c r="T6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -15891,6 +9447,15 @@
       <c r="S7" t="n">
         <v>10.0</v>
       </c>
+      <c r="T7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -15950,6 +9515,15 @@
       <c r="S8" t="n">
         <v>9.0</v>
       </c>
+      <c r="T8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -16009,6 +9583,15 @@
       <c r="S9" t="n">
         <v>5.0</v>
       </c>
+      <c r="T9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -16068,6 +9651,15 @@
       <c r="S10" t="n">
         <v>6.0</v>
       </c>
+      <c r="T10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -16127,6 +9719,15 @@
       <c r="S11" t="n">
         <v>11.0</v>
       </c>
+      <c r="T11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -16186,6 +9787,15 @@
       <c r="S12" t="n">
         <v>12.0</v>
       </c>
+      <c r="T12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -16243,6 +9853,15 @@
         <v>8.0</v>
       </c>
       <c r="S13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V13" t="n">
         <v>8.0</v>
       </c>
     </row>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="226">
   <si>
     <t>arg_teams</t>
   </si>
@@ -4205,6 +4205,9 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -4256,28 +4259,31 @@
         <v>5.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="X2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -4353,6 +4359,9 @@
       <c r="X3" t="n">
         <v>11.0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4427,6 +4436,9 @@
       <c r="X4" t="n">
         <v>12.0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4484,22 +4496,25 @@
         <v>6.0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="U5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="V5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="W5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="X5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -4561,7 +4576,7 @@
         <v>8.0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U6" t="n">
         <v>8.0</v>
@@ -4573,6 +4588,9 @@
         <v>9.0</v>
       </c>
       <c r="X6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -4641,12 +4659,15 @@
         <v>9.0</v>
       </c>
       <c r="V7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="W7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="X7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -4706,22 +4727,25 @@
         <v>8.0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="W8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -4777,25 +4801,28 @@
         <v>5.0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="V9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -4871,6 +4898,9 @@
       <c r="X10" t="n">
         <v>1.0</v>
       </c>
+      <c r="Y10" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4919,7 +4949,7 @@
         <v>2.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q11" t="n">
         <v>2.0</v>
@@ -4928,21 +4958,24 @@
         <v>2.0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T11" t="n">
         <v>2.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W11" t="n">
         <v>2.0</v>
       </c>
       <c r="X11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -5019,6 +5052,9 @@
       <c r="X12" t="n">
         <v>9.0</v>
       </c>
+      <c r="Y12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5067,31 +5103,34 @@
         <v>3.0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="T13" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="U13" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="V13" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="W13" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="X13" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -9048,6 +9087,9 @@
       <c r="V1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -9116,6 +9158,9 @@
       <c r="V2" t="n">
         <v>4.0</v>
       </c>
+      <c r="W2" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -9184,6 +9229,9 @@
       <c r="V3" t="n">
         <v>7.0</v>
       </c>
+      <c r="W3" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -9252,6 +9300,9 @@
       <c r="V4" t="n">
         <v>2.0</v>
       </c>
+      <c r="W4" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -9320,6 +9371,9 @@
       <c r="V5" t="n">
         <v>1.0</v>
       </c>
+      <c r="W5" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -9388,6 +9442,9 @@
       <c r="V6" t="n">
         <v>3.0</v>
       </c>
+      <c r="W6" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -9456,6 +9513,9 @@
       <c r="V7" t="n">
         <v>10.0</v>
       </c>
+      <c r="W7" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -9524,6 +9584,9 @@
       <c r="V8" t="n">
         <v>9.0</v>
       </c>
+      <c r="W8" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -9592,6 +9655,9 @@
       <c r="V9" t="n">
         <v>6.0</v>
       </c>
+      <c r="W9" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -9660,6 +9726,9 @@
       <c r="V10" t="n">
         <v>5.0</v>
       </c>
+      <c r="W10" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -9728,6 +9797,9 @@
       <c r="V11" t="n">
         <v>12.0</v>
       </c>
+      <c r="W11" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -9796,6 +9868,9 @@
       <c r="V12" t="n">
         <v>11.0</v>
       </c>
+      <c r="W12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -9863,6 +9938,9 @@
       </c>
       <c r="V13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="351">
   <si>
     <t>arg_teams</t>
   </si>
@@ -74,6 +74,9 @@
     <t>X14</t>
   </si>
   <si>
+    <t>X15</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -245,9 +248,6 @@
     <t>aut_teams</t>
   </si>
   <si>
-    <t>X15</t>
-  </si>
-  <si>
     <t>X16</t>
   </si>
   <si>
@@ -293,6 +293,9 @@
     <t>X30</t>
   </si>
   <si>
+    <t>X31</t>
+  </si>
+  <si>
     <t>A. Klagenfurt</t>
   </si>
   <si>
@@ -620,9 +623,6 @@
     <t>mex_teams</t>
   </si>
   <si>
-    <t>X31</t>
-  </si>
-  <si>
     <t>X32</t>
   </si>
   <si>
@@ -641,6 +641,9 @@
     <t>X37</t>
   </si>
   <si>
+    <t>X38</t>
+  </si>
+  <si>
     <t>Atl. San Luis</t>
   </si>
   <si>
@@ -893,7 +896,7 @@
     <t>rou_teams</t>
   </si>
   <si>
-    <t>X38</t>
+    <t>X39</t>
   </si>
   <si>
     <t>Academica Clinceni</t>
@@ -1174,13 +1177,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -1224,13 +1230,16 @@
       <c r="P2" t="n">
         <v>10.0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1272,15 +1281,18 @@
         <v>6.0</v>
       </c>
       <c r="P3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -1324,13 +1336,16 @@
       <c r="P4" t="n">
         <v>16.0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -1374,13 +1389,16 @@
       <c r="P5" t="n">
         <v>25.0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -1424,13 +1442,16 @@
       <c r="P6" t="n">
         <v>12.0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -1474,13 +1495,16 @@
       <c r="P7" t="n">
         <v>13.0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -1523,14 +1547,17 @@
       </c>
       <c r="P8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1574,13 +1601,16 @@
       <c r="P9" t="n">
         <v>21.0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -1624,13 +1654,16 @@
       <c r="P10" t="n">
         <v>18.0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -1674,13 +1707,16 @@
       <c r="P11" t="n">
         <v>6.0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1722,15 +1758,18 @@
         <v>2.0</v>
       </c>
       <c r="P12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -1774,13 +1813,16 @@
       <c r="P13" t="n">
         <v>7.0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="n">
         <v>15.0</v>
@@ -1824,13 +1866,16 @@
       <c r="P14" t="n">
         <v>19.0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -1874,13 +1919,16 @@
       <c r="P15" t="n">
         <v>14.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="n">
         <v>24.0</v>
@@ -1924,13 +1972,16 @@
       <c r="P16" t="n">
         <v>20.0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="n">
         <v>25.0</v>
@@ -1974,13 +2025,16 @@
       <c r="P17" t="n">
         <v>22.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -2024,13 +2078,16 @@
       <c r="P18" t="n">
         <v>8.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
         <v>26.0</v>
@@ -2074,13 +2131,16 @@
       <c r="P19" t="n">
         <v>27.0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -2124,13 +2184,16 @@
       <c r="P20" t="n">
         <v>28.0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="n">
         <v>16.0</v>
@@ -2174,13 +2237,16 @@
       <c r="P21" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>27.0</v>
@@ -2224,13 +2290,16 @@
       <c r="P22" t="n">
         <v>2.0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -2274,13 +2343,16 @@
       <c r="P23" t="n">
         <v>24.0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -2324,13 +2396,16 @@
       <c r="P24" t="n">
         <v>23.0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -2374,13 +2449,16 @@
       <c r="P25" t="n">
         <v>9.0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -2424,13 +2502,16 @@
       <c r="P26" t="n">
         <v>26.0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -2474,13 +2555,16 @@
       <c r="P27" t="n">
         <v>11.0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
         <v>8.0</v>
@@ -2524,13 +2608,16 @@
       <c r="P28" t="n">
         <v>17.0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" t="n">
         <v>9.0</v>
@@ -2572,6 +2659,9 @@
         <v>18.0</v>
       </c>
       <c r="P29" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -2591,7 +2681,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2626,13 +2716,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -2666,14 +2759,17 @@
       </c>
       <c r="M2" t="n">
         <v>12.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -2706,15 +2802,18 @@
         <v>2.0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" t="n">
         <v>20.0</v>
@@ -2747,15 +2846,18 @@
         <v>6.0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -2788,15 +2890,18 @@
         <v>15.0</v>
       </c>
       <c r="M5" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -2829,15 +2934,18 @@
         <v>23.0</v>
       </c>
       <c r="M6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -2870,15 +2978,18 @@
         <v>17.0</v>
       </c>
       <c r="M7" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -2911,15 +3022,18 @@
         <v>16.0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -2952,15 +3066,18 @@
         <v>18.0</v>
       </c>
       <c r="M9" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C10" t="n">
         <v>23.0</v>
@@ -2993,15 +3110,18 @@
         <v>8.0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -3034,15 +3154,18 @@
         <v>3.0</v>
       </c>
       <c r="M11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -3075,15 +3198,18 @@
         <v>19.0</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -3116,15 +3242,18 @@
         <v>24.0</v>
       </c>
       <c r="M13" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -3158,14 +3287,17 @@
       </c>
       <c r="M14" t="n">
         <v>1.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -3198,15 +3330,18 @@
         <v>9.0</v>
       </c>
       <c r="M15" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C16" t="n">
         <v>14.0</v>
@@ -3239,15 +3374,18 @@
         <v>13.0</v>
       </c>
       <c r="M16" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -3280,15 +3418,18 @@
         <v>11.0</v>
       </c>
       <c r="M17" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -3323,13 +3464,16 @@
       <c r="M18" t="n">
         <v>21.0</v>
       </c>
+      <c r="N18" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3362,15 +3506,18 @@
         <v>14.0</v>
       </c>
       <c r="M19" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -3403,15 +3550,18 @@
         <v>5.0</v>
       </c>
       <c r="M20" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" t="n">
         <v>9.0</v>
@@ -3444,15 +3594,18 @@
         <v>7.0</v>
       </c>
       <c r="M21" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -3485,15 +3638,18 @@
         <v>4.0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -3526,15 +3682,18 @@
         <v>20.0</v>
       </c>
       <c r="M23" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -3569,13 +3728,16 @@
       <c r="M24" t="n">
         <v>10.0</v>
       </c>
+      <c r="N24" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" t="n">
         <v>25.0</v>
@@ -3610,13 +3772,16 @@
       <c r="M25" t="n">
         <v>25.0</v>
       </c>
+      <c r="N25" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" t="n">
         <v>26.0</v>
@@ -3649,15 +3814,18 @@
         <v>27.0</v>
       </c>
       <c r="M26" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" t="n">
         <v>27.0</v>
@@ -3692,13 +3860,16 @@
       <c r="M27" t="n">
         <v>26.0</v>
       </c>
+      <c r="N27" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" t="n">
         <v>19.0</v>
@@ -3731,15 +3902,18 @@
         <v>22.0</v>
       </c>
       <c r="M28" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" t="n">
         <v>28.0</v>
@@ -3772,6 +3946,9 @@
         <v>28.0</v>
       </c>
       <c r="M29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N29" t="n">
         <v>28.0</v>
       </c>
     </row>
@@ -3791,7 +3968,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3805,13 +3982,22 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -3824,14 +4010,23 @@
       </c>
       <c r="F2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -3844,14 +4039,23 @@
       </c>
       <c r="F3" t="n">
         <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -3864,14 +4068,23 @@
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -3884,14 +4097,23 @@
       </c>
       <c r="F5" t="n">
         <v>16.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -3904,14 +4126,23 @@
       </c>
       <c r="F6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -3924,14 +4155,23 @@
       </c>
       <c r="F7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -3944,14 +4184,23 @@
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -3964,14 +4213,23 @@
       </c>
       <c r="F9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -3984,14 +4242,23 @@
       </c>
       <c r="F10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -4004,14 +4271,23 @@
       </c>
       <c r="F11" t="n">
         <v>9.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -4024,14 +4300,23 @@
       </c>
       <c r="F12" t="n">
         <v>10.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -4044,14 +4329,23 @@
       </c>
       <c r="F13" t="n">
         <v>6.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -4064,14 +4358,23 @@
       </c>
       <c r="F14" t="n">
         <v>14.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -4084,14 +4387,23 @@
       </c>
       <c r="F15" t="n">
         <v>13.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -4104,14 +4416,23 @@
       </c>
       <c r="F16" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -4124,6 +4445,15 @@
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4472,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4187,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -4235,18 +4565,21 @@
         <v>87</v>
       </c>
       <c r="AG1" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="AH1" t="s">
         <v>198</v>
       </c>
+      <c r="AI1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -4344,13 +4677,16 @@
       <c r="AH2" t="n">
         <v>8.0</v>
       </c>
+      <c r="AI2" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C3" t="n">
         <v>15.0</v>
@@ -4448,13 +4784,16 @@
       <c r="AH3" t="n">
         <v>9.0</v>
       </c>
+      <c r="AI3" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -4551,14 +4890,17 @@
       </c>
       <c r="AH4" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -4654,15 +4996,18 @@
         <v>1.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -4758,15 +5103,18 @@
         <v>4.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -4864,13 +5212,16 @@
       <c r="AH7" t="n">
         <v>18.0</v>
       </c>
+      <c r="AI7" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -4968,13 +5319,16 @@
       <c r="AH8" t="n">
         <v>10.0</v>
       </c>
+      <c r="AI8" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -5070,15 +5424,18 @@
         <v>5.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -5174,15 +5531,18 @@
         <v>3.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -5279,14 +5639,17 @@
       </c>
       <c r="AH11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -5382,15 +5745,18 @@
         <v>2.0</v>
       </c>
       <c r="AH12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C13" t="n">
         <v>11.0</v>
@@ -5486,15 +5852,18 @@
         <v>14.0</v>
       </c>
       <c r="AH13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -5592,13 +5961,16 @@
       <c r="AH14" t="n">
         <v>13.0</v>
       </c>
+      <c r="AI14" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C15" t="n">
         <v>13.0</v>
@@ -5696,13 +6068,16 @@
       <c r="AH15" t="n">
         <v>16.0</v>
       </c>
+      <c r="AI15" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C16" t="n">
         <v>14.0</v>
@@ -5800,13 +6175,16 @@
       <c r="AH16" t="n">
         <v>11.0</v>
       </c>
+      <c r="AI16" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -5904,13 +6282,16 @@
       <c r="AH17" t="n">
         <v>17.0</v>
       </c>
+      <c r="AI17" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C18" t="n">
         <v>17.0</v>
@@ -6008,13 +6389,16 @@
       <c r="AH18" t="n">
         <v>6.0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -6111,6 +6495,9 @@
       </c>
       <c r="AH19" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -6129,7 +6516,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6174,7 +6561,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -6222,7 +6609,7 @@
         <v>87</v>
       </c>
       <c r="AG1" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="AH1" t="s">
         <v>198</v>
@@ -6243,15 +6630,18 @@
         <v>203</v>
       </c>
       <c r="AN1" t="s">
-        <v>288</v>
+        <v>204</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -6365,15 +6755,18 @@
         <v>16.0</v>
       </c>
       <c r="AN2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -6487,15 +6880,18 @@
         <v>1.0</v>
       </c>
       <c r="AN3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -6609,15 +7005,18 @@
         <v>13.0</v>
       </c>
       <c r="AN4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -6731,15 +7130,18 @@
         <v>14.0</v>
       </c>
       <c r="AN5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -6854,14 +7256,17 @@
       </c>
       <c r="AN6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C7" t="n">
         <v>13.0</v>
@@ -6975,15 +7380,18 @@
         <v>9.0</v>
       </c>
       <c r="AN7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -7097,15 +7505,18 @@
         <v>4.0</v>
       </c>
       <c r="AN8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -7220,14 +7631,17 @@
       </c>
       <c r="AN9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -7342,14 +7756,17 @@
       </c>
       <c r="AN10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -7463,15 +7880,18 @@
         <v>2.0</v>
       </c>
       <c r="AN11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -7585,15 +8005,18 @@
         <v>15.0</v>
       </c>
       <c r="AN12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" t="n">
         <v>15.0</v>
@@ -7707,15 +8130,18 @@
         <v>12.0</v>
       </c>
       <c r="AN13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -7830,14 +8256,17 @@
       </c>
       <c r="AN14" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C15" t="n">
         <v>16.0</v>
@@ -7951,15 +8380,18 @@
         <v>11.0</v>
       </c>
       <c r="AN15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C16" t="n">
         <v>6.0</v>
@@ -8073,15 +8505,18 @@
         <v>3.0</v>
       </c>
       <c r="AN16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C17" t="n">
         <v>10.0</v>
@@ -8195,6 +8630,9 @@
         <v>10.0</v>
       </c>
       <c r="AN17" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AO17" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -8214,7 +8652,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8259,7 +8697,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -8300,13 +8738,16 @@
       <c r="AD1" t="s">
         <v>85</v>
       </c>
+      <c r="AE1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -8391,14 +8832,17 @@
       </c>
       <c r="AD2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -8482,15 +8926,18 @@
         <v>16.0</v>
       </c>
       <c r="AD3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -8575,14 +9022,17 @@
       </c>
       <c r="AD4" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -8666,15 +9116,18 @@
         <v>2.0</v>
       </c>
       <c r="AD5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -8759,14 +9212,17 @@
       </c>
       <c r="AD6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -8851,14 +9307,17 @@
       </c>
       <c r="AD7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -8943,14 +9402,17 @@
       </c>
       <c r="AD8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -9034,15 +9496,18 @@
         <v>6.0</v>
       </c>
       <c r="AD9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" t="n">
         <v>6.0</v>
@@ -9127,14 +9592,17 @@
       </c>
       <c r="AD10" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -9219,14 +9687,17 @@
       </c>
       <c r="AD11" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -9311,14 +9782,17 @@
       </c>
       <c r="AD12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -9402,15 +9876,18 @@
         <v>3.0</v>
       </c>
       <c r="AD13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -9495,14 +9972,17 @@
       </c>
       <c r="AD14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -9586,15 +10066,18 @@
         <v>15.0</v>
       </c>
       <c r="AD15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -9679,14 +10162,17 @@
       </c>
       <c r="AD16" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -9770,6 +10256,9 @@
         <v>1.0</v>
       </c>
       <c r="AD17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -9789,7 +10278,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9815,13 +10304,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2" t="n">
         <v>9.0</v>
@@ -9845,15 +10337,18 @@
         <v>2.0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -9877,15 +10372,18 @@
         <v>15.0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -9909,15 +10407,18 @@
         <v>7.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -9941,15 +10442,18 @@
         <v>8.0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -9973,15 +10477,18 @@
         <v>9.0</v>
       </c>
       <c r="J6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -10005,15 +10512,18 @@
         <v>4.0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -10037,15 +10547,18 @@
         <v>1.0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -10069,15 +10582,18 @@
         <v>13.0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -10101,15 +10617,18 @@
         <v>6.0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -10133,15 +10652,18 @@
         <v>3.0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -10166,14 +10688,17 @@
       </c>
       <c r="J12" t="n">
         <v>5.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -10197,15 +10722,18 @@
         <v>10.0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -10229,15 +10757,18 @@
         <v>11.0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -10261,15 +10792,18 @@
         <v>16.0</v>
       </c>
       <c r="J15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -10293,15 +10827,18 @@
         <v>12.0</v>
       </c>
       <c r="J16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K16" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -10325,6 +10862,9 @@
         <v>14.0</v>
       </c>
       <c r="J17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K17" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -10344,7 +10884,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10389,7 +10929,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -10437,7 +10977,7 @@
         <v>87</v>
       </c>
       <c r="AG1" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="AH1" t="s">
         <v>198</v>
@@ -10445,13 +10985,19 @@
       <c r="AI1" t="s">
         <v>199</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -10550,15 +11096,21 @@
         <v>2.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -10658,14 +11210,20 @@
       </c>
       <c r="AI3" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -10764,15 +11322,21 @@
         <v>10.0</v>
       </c>
       <c r="AI4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -10871,15 +11435,21 @@
         <v>4.0</v>
       </c>
       <c r="AI5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -10978,15 +11548,21 @@
         <v>9.0</v>
       </c>
       <c r="AI6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -11085,15 +11661,21 @@
         <v>6.0</v>
       </c>
       <c r="AI7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -11193,14 +11775,20 @@
       </c>
       <c r="AI8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -11299,15 +11887,21 @@
         <v>5.0</v>
       </c>
       <c r="AI9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -11406,15 +12000,21 @@
         <v>3.0</v>
       </c>
       <c r="AI10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK10" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -11513,6 +12113,12 @@
         <v>1.0</v>
       </c>
       <c r="AI11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -11532,7 +12138,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11577,7 +12183,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -11624,13 +12230,16 @@
       <c r="AF1" t="s">
         <v>87</v>
       </c>
+      <c r="AG1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -11721,14 +12330,17 @@
       </c>
       <c r="AF2" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -11818,15 +12430,18 @@
         <v>11.0</v>
       </c>
       <c r="AF3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -11916,15 +12531,18 @@
         <v>12.0</v>
       </c>
       <c r="AF4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -12015,14 +12633,17 @@
       </c>
       <c r="AF5" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -12112,15 +12733,18 @@
         <v>10.0</v>
       </c>
       <c r="AF6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -12211,14 +12835,17 @@
       </c>
       <c r="AF7" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -12309,14 +12936,17 @@
       </c>
       <c r="AF8" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -12407,14 +13037,17 @@
       </c>
       <c r="AF9" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -12504,15 +13137,18 @@
         <v>1.0</v>
       </c>
       <c r="AF10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -12602,15 +13238,18 @@
         <v>2.0</v>
       </c>
       <c r="AF11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -12700,15 +13339,18 @@
         <v>6.0</v>
       </c>
       <c r="AF12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -12799,6 +13441,9 @@
       </c>
       <c r="AF13" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -12817,7 +13462,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12834,13 +13479,16 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -12856,14 +13504,17 @@
       </c>
       <c r="G2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
         <v>15.0</v>
@@ -12880,13 +13531,16 @@
       <c r="G3" t="n">
         <v>12.0</v>
       </c>
+      <c r="H3" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -12902,14 +13556,17 @@
       </c>
       <c r="G4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -12926,13 +13583,16 @@
       <c r="G5" t="n">
         <v>17.0</v>
       </c>
+      <c r="H5" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -12948,14 +13608,17 @@
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -12970,15 +13633,18 @@
         <v>11.0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -12993,15 +13659,18 @@
         <v>4.0</v>
       </c>
       <c r="G8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -13018,13 +13687,16 @@
       <c r="G9" t="n">
         <v>18.0</v>
       </c>
+      <c r="H9" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -13039,15 +13711,18 @@
         <v>2.0</v>
       </c>
       <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -13063,14 +13738,17 @@
       </c>
       <c r="G11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -13086,14 +13764,17 @@
       </c>
       <c r="G12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -13109,14 +13790,17 @@
       </c>
       <c r="G13" t="n">
         <v>14.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -13132,14 +13816,17 @@
       </c>
       <c r="G14" t="n">
         <v>15.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -13156,13 +13843,16 @@
       <c r="G15" t="n">
         <v>20.0</v>
       </c>
+      <c r="H15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -13179,13 +13869,16 @@
       <c r="G16" t="n">
         <v>16.0</v>
       </c>
+      <c r="H16" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -13202,13 +13895,16 @@
       <c r="G17" t="n">
         <v>8.0</v>
       </c>
+      <c r="H17" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -13225,13 +13921,16 @@
       <c r="G18" t="n">
         <v>19.0</v>
       </c>
+      <c r="H18" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -13248,13 +13947,16 @@
       <c r="G19" t="n">
         <v>13.0</v>
       </c>
+      <c r="H19" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -13270,14 +13972,17 @@
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -13293,6 +13998,9 @@
       </c>
       <c r="G21" t="n">
         <v>9.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -13311,7 +14019,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13356,7 +14064,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -13376,10 +14084,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -13444,10 +14152,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -13512,10 +14220,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -13580,10 +14288,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -13648,10 +14356,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -13716,10 +14424,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -13784,10 +14492,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -13852,10 +14560,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -13920,10 +14628,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -13988,10 +14696,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -14056,10 +14764,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -14124,10 +14832,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -14192,10 +14900,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -14260,10 +14968,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -14328,10 +15036,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -14396,10 +15104,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -14464,10 +15172,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -14532,10 +15240,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -14614,7 +15322,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14659,7 +15367,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -14706,10 +15414,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -14801,10 +15509,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -14896,10 +15604,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -14991,10 +15699,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -15086,10 +15794,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -15181,10 +15889,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -15276,10 +15984,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -15371,10 +16079,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15466,10 +16174,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -15561,10 +16269,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -15656,10 +16364,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -15751,10 +16459,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -15860,7 +16568,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15883,13 +16591,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -15910,15 +16621,18 @@
         <v>9.0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -15939,15 +16653,18 @@
         <v>4.0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -15968,15 +16685,18 @@
         <v>12.0</v>
       </c>
       <c r="I4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -15997,15 +16717,18 @@
         <v>1.0</v>
       </c>
       <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -16026,15 +16749,18 @@
         <v>3.0</v>
       </c>
       <c r="I6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -16055,15 +16781,18 @@
         <v>6.0</v>
       </c>
       <c r="I7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -16084,15 +16813,18 @@
         <v>5.0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -16113,15 +16845,18 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" t="n">
         <v>6.0</v>
@@ -16143,14 +16878,17 @@
       </c>
       <c r="I10" t="n">
         <v>7.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -16171,15 +16909,18 @@
         <v>10.0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -16201,14 +16942,17 @@
       </c>
       <c r="I12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -16229,7 +16973,10 @@
         <v>8.0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -16248,7 +16995,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16293,15 +17040,18 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -16346,15 +17096,18 @@
         <v>6.0</v>
       </c>
       <c r="Q2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -16399,15 +17152,18 @@
         <v>1.0</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -16452,15 +17208,18 @@
         <v>8.0</v>
       </c>
       <c r="Q4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -16505,15 +17264,18 @@
         <v>4.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -16558,15 +17320,18 @@
         <v>9.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -16611,15 +17376,18 @@
         <v>2.0</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -16664,15 +17432,18 @@
         <v>7.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -16717,15 +17488,18 @@
         <v>5.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -16770,15 +17544,18 @@
         <v>3.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16823,6 +17600,9 @@
         <v>10.0</v>
       </c>
       <c r="Q11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -16842,7 +17622,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16880,13 +17660,16 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -16923,14 +17706,17 @@
       </c>
       <c r="N2" t="n">
         <v>11.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -16966,15 +17752,18 @@
         <v>6.0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -17012,13 +17801,16 @@
       <c r="N4" t="n">
         <v>6.0</v>
       </c>
+      <c r="O4" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -17055,14 +17847,17 @@
       </c>
       <c r="N5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -17098,15 +17893,18 @@
         <v>11.0</v>
       </c>
       <c r="N6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -17142,15 +17940,18 @@
         <v>14.0</v>
       </c>
       <c r="N7" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -17187,14 +17988,17 @@
       </c>
       <c r="N8" t="n">
         <v>1.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -17230,15 +18034,18 @@
         <v>3.0</v>
       </c>
       <c r="N9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -17275,14 +18082,17 @@
       </c>
       <c r="N10" t="n">
         <v>2.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -17319,14 +18129,17 @@
       </c>
       <c r="N11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -17362,15 +18175,18 @@
         <v>15.0</v>
       </c>
       <c r="N12" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -17406,15 +18222,18 @@
         <v>9.0</v>
       </c>
       <c r="N13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -17450,15 +18269,18 @@
         <v>7.0</v>
       </c>
       <c r="N14" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -17494,15 +18316,18 @@
         <v>12.0</v>
       </c>
       <c r="N15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -17540,13 +18365,16 @@
       <c r="N16" t="n">
         <v>17.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -17582,15 +18410,18 @@
         <v>16.0</v>
       </c>
       <c r="N17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O17" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -17628,13 +18459,16 @@
       <c r="N18" t="n">
         <v>18.0</v>
       </c>
+      <c r="O18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -17670,6 +18504,9 @@
         <v>5.0</v>
       </c>
       <c r="N19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -17689,7 +18526,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17734,7 +18571,7 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
         <v>73</v>
@@ -17782,7 +18619,7 @@
         <v>87</v>
       </c>
       <c r="AG1" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="AH1" t="s">
         <v>198</v>
@@ -17802,13 +18639,16 @@
       <c r="AM1" t="s">
         <v>203</v>
       </c>
+      <c r="AN1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -17919,15 +18759,18 @@
         <v>12.0</v>
       </c>
       <c r="AM2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -18039,14 +18882,17 @@
       </c>
       <c r="AM3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -18157,15 +19003,18 @@
         <v>3.0</v>
       </c>
       <c r="AM4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -18277,14 +19126,17 @@
       </c>
       <c r="AM5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -18397,13 +19249,16 @@
       <c r="AM6" t="n">
         <v>16.0</v>
       </c>
+      <c r="AN6" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -18515,14 +19370,17 @@
       </c>
       <c r="AM7" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" t="n">
         <v>16.0</v>
@@ -18634,14 +19492,17 @@
       </c>
       <c r="AM8" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C9" t="n">
         <v>17.0</v>
@@ -18754,13 +19615,16 @@
       <c r="AM9" t="n">
         <v>18.0</v>
       </c>
+      <c r="AN9" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -18871,15 +19735,18 @@
         <v>15.0</v>
       </c>
       <c r="AM10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -18990,15 +19857,18 @@
         <v>7.0</v>
       </c>
       <c r="AM11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C12" t="n">
         <v>18.0</v>
@@ -19111,13 +19981,16 @@
       <c r="AM12" t="n">
         <v>13.0</v>
       </c>
+      <c r="AN12" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -19229,14 +20102,17 @@
       </c>
       <c r="AM13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C14" t="n">
         <v>10.0</v>
@@ -19347,15 +20223,18 @@
         <v>6.0</v>
       </c>
       <c r="AM14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -19468,13 +20347,16 @@
       <c r="AM15" t="n">
         <v>17.0</v>
       </c>
+      <c r="AN15" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -19586,14 +20468,17 @@
       </c>
       <c r="AM16" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -19704,15 +20589,18 @@
         <v>14.0</v>
       </c>
       <c r="AM17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -19824,14 +20712,17 @@
       </c>
       <c r="AM18" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -19943,6 +20834,9 @@
       </c>
       <c r="AM19" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="354">
   <si>
     <t>arg_teams</t>
   </si>
@@ -296,6 +296,12 @@
     <t>X31</t>
   </si>
   <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
     <t>A. Klagenfurt</t>
   </si>
   <si>
@@ -623,12 +629,6 @@
     <t>mex_teams</t>
   </si>
   <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
     <t>X34</t>
   </si>
   <si>
@@ -896,9 +896,6 @@
     <t>rou_teams</t>
   </si>
   <si>
-    <t>X39</t>
-  </si>
-  <si>
     <t>Academica Clinceni</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
+    <t>Concordia</t>
+  </si>
+  <si>
     <t>Din. Bucuresti</t>
   </si>
   <si>
@@ -941,6 +941,9 @@
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>U. Cluj</t>
+  </si>
+  <si>
     <t>Univ. Craiova</t>
   </si>
   <si>
@@ -977,10 +980,16 @@
     <t>Nizhny Novgorod</t>
   </si>
   <si>
+    <t>Orenburg</t>
+  </si>
+  <si>
     <t>Rubin Kazan</t>
   </si>
   <si>
     <t>samara</t>
+  </si>
+  <si>
+    <t>SKA Khabarovsk</t>
   </si>
   <si>
     <t>Sochi</t>
@@ -1549,7 +1558,7 @@
         <v>4.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2238,7 +2247,7 @@
         <v>1.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -2719,6 +2728,12 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2763,6 +2778,12 @@
       <c r="N2" t="n">
         <v>13.0</v>
       </c>
+      <c r="O2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2805,7 +2826,13 @@
         <v>3.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -2851,6 +2878,12 @@
       <c r="N4" t="n">
         <v>5.0</v>
       </c>
+      <c r="O4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2893,6 +2926,12 @@
         <v>18.0</v>
       </c>
       <c r="N5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -2937,7 +2976,13 @@
         <v>24.0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
@@ -2983,6 +3028,12 @@
       <c r="N7" t="n">
         <v>14.0</v>
       </c>
+      <c r="O7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3025,6 +3076,12 @@
         <v>19.0</v>
       </c>
       <c r="N8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -3069,7 +3126,13 @@
         <v>20.0</v>
       </c>
       <c r="N9" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
@@ -3115,6 +3178,12 @@
       <c r="N10" t="n">
         <v>10.0</v>
       </c>
+      <c r="O10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3159,6 +3228,12 @@
       <c r="N11" t="n">
         <v>3.0</v>
       </c>
+      <c r="O11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3203,6 +3278,12 @@
       <c r="N12" t="n">
         <v>15.0</v>
       </c>
+      <c r="O12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3245,7 +3326,13 @@
         <v>22.0</v>
       </c>
       <c r="N13" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -3289,7 +3376,13 @@
         <v>1.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -3335,6 +3428,12 @@
       <c r="N15" t="n">
         <v>6.0</v>
       </c>
+      <c r="O15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3379,6 +3478,12 @@
       <c r="N16" t="n">
         <v>16.0</v>
       </c>
+      <c r="O16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3423,6 +3528,12 @@
       <c r="N17" t="n">
         <v>12.0</v>
       </c>
+      <c r="O17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3465,7 +3576,13 @@
         <v>21.0</v>
       </c>
       <c r="N18" t="n">
-        <v>24.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
@@ -3511,6 +3628,12 @@
       <c r="N19" t="n">
         <v>7.0</v>
       </c>
+      <c r="O19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3555,6 +3678,12 @@
       <c r="N20" t="n">
         <v>8.0</v>
       </c>
+      <c r="O20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3599,6 +3728,12 @@
       <c r="N21" t="n">
         <v>9.0</v>
       </c>
+      <c r="O21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3643,6 +3778,12 @@
       <c r="N22" t="n">
         <v>4.0</v>
       </c>
+      <c r="O22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3685,7 +3826,13 @@
         <v>16.0</v>
       </c>
       <c r="N23" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="24">
@@ -3731,6 +3878,12 @@
       <c r="N24" t="n">
         <v>11.0</v>
       </c>
+      <c r="O24" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3773,7 +3926,13 @@
         <v>25.0</v>
       </c>
       <c r="N25" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -3817,7 +3976,13 @@
         <v>28.0</v>
       </c>
       <c r="N26" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="27">
@@ -3863,6 +4028,12 @@
       <c r="N27" t="n">
         <v>25.0</v>
       </c>
+      <c r="O27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3905,7 +4076,13 @@
         <v>23.0</v>
       </c>
       <c r="N28" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="29">
@@ -3950,6 +4127,12 @@
       </c>
       <c r="N29" t="n">
         <v>28.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -3991,6 +4174,15 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -4020,6 +4212,15 @@
       <c r="I2" t="n">
         <v>10.0</v>
       </c>
+      <c r="J2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4047,6 +4248,15 @@
         <v>6.0</v>
       </c>
       <c r="I3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -4078,6 +4288,15 @@
       <c r="I4" t="n">
         <v>11.0</v>
       </c>
+      <c r="J4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4107,6 +4326,15 @@
       <c r="I5" t="n">
         <v>13.0</v>
       </c>
+      <c r="J5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4136,6 +4364,15 @@
       <c r="I6" t="n">
         <v>12.0</v>
       </c>
+      <c r="J6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4165,6 +4402,15 @@
       <c r="I7" t="n">
         <v>16.0</v>
       </c>
+      <c r="J7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4192,7 +4438,16 @@
         <v>2.0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -4223,6 +4478,15 @@
       <c r="I9" t="n">
         <v>3.0</v>
       </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4252,6 +4516,15 @@
       <c r="I10" t="n">
         <v>14.0</v>
       </c>
+      <c r="J10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4281,6 +4554,15 @@
       <c r="I11" t="n">
         <v>8.0</v>
       </c>
+      <c r="J11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4310,6 +4592,15 @@
       <c r="I12" t="n">
         <v>15.0</v>
       </c>
+      <c r="J12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4337,7 +4628,16 @@
         <v>4.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -4366,7 +4666,16 @@
         <v>5.0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -4397,6 +4706,15 @@
       <c r="I15" t="n">
         <v>9.0</v>
       </c>
+      <c r="J15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4424,7 +4742,16 @@
         <v>8.0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -4453,7 +4780,16 @@
         <v>1.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -4568,10 +4904,13 @@
         <v>88</v>
       </c>
       <c r="AH1" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>90</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2">
@@ -4680,6 +5019,9 @@
       <c r="AI2" t="n">
         <v>7.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4787,6 +5129,9 @@
       <c r="AI3" t="n">
         <v>9.0</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4894,6 +5239,9 @@
       <c r="AI4" t="n">
         <v>13.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -5001,6 +5349,9 @@
       <c r="AI5" t="n">
         <v>1.0</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -5108,6 +5459,9 @@
       <c r="AI6" t="n">
         <v>4.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -5215,6 +5569,9 @@
       <c r="AI7" t="n">
         <v>18.0</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -5322,6 +5679,9 @@
       <c r="AI8" t="n">
         <v>10.0</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -5429,6 +5789,9 @@
       <c r="AI9" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -5536,6 +5899,9 @@
       <c r="AI10" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -5643,6 +6009,9 @@
       <c r="AI11" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -5750,6 +6119,9 @@
       <c r="AI12" t="n">
         <v>2.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5857,6 +6229,9 @@
       <c r="AI13" t="n">
         <v>15.0</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -5964,6 +6339,9 @@
       <c r="AI14" t="n">
         <v>14.0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -6071,6 +6449,9 @@
       <c r="AI15" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -6178,6 +6559,9 @@
       <c r="AI16" t="n">
         <v>11.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -6285,6 +6669,9 @@
       <c r="AI17" t="n">
         <v>17.0</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -6392,6 +6779,9 @@
       <c r="AI18" t="n">
         <v>8.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -6498,6 +6888,9 @@
       </c>
       <c r="AI19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -6612,10 +7005,10 @@
         <v>88</v>
       </c>
       <c r="AH1" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="AJ1" t="s">
         <v>200</v>
@@ -6625,15 +7018,6 @@
       </c>
       <c r="AL1" t="s">
         <v>202</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2">
@@ -6641,13 +7025,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="E2" t="n">
         <v>16.0</v>
@@ -6749,15 +7133,6 @@
         <v>16.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AO2" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -6766,13 +7141,13 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
@@ -6874,15 +7249,6 @@
         <v>1.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AO3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -6891,7 +7257,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" t="n">
         <v>12.0</v>
@@ -6903,19 +7269,19 @@
         <v>14.0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="H4" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="K4" t="n">
         <v>10.0</v>
@@ -6939,13 +7305,13 @@
         <v>10.0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="U4" t="n">
         <v>11.0</v>
@@ -6957,10 +7323,10 @@
         <v>11.0</v>
       </c>
       <c r="X4" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z4" t="n">
         <v>11.0</v>
@@ -6969,7 +7335,7 @@
         <v>11.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC4" t="n">
         <v>11.0</v>
@@ -6981,34 +7347,25 @@
         <v>12.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AJ4" t="n">
         <v>12.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
@@ -7016,124 +7373,115 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="D5" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="H5" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="J5" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="L5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="M5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="N5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="S5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="T5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="V5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="W5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="X5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
@@ -7141,124 +7489,115 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="K6" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="M6" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="N6" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="P6" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="T6" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="U6" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="V6" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="W6" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="X6" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
@@ -7266,94 +7605,94 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="M7" t="n">
         <v>9.0</v>
       </c>
       <c r="N7" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="O7" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="P7" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="R7" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="S7" t="n">
         <v>7.0</v>
       </c>
       <c r="T7" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="V7" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="W7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="X7" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AF7" t="n">
         <v>5.0</v>
@@ -7368,22 +7707,13 @@
         <v>8.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
@@ -7391,124 +7721,115 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="O8" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="V8" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="W8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
@@ -7516,124 +7837,115 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I9" t="n">
         <v>2.0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="M9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="N9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="O9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="S9" t="n">
         <v>5.0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="V9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -7641,97 +7953,97 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K10" t="n">
         <v>6.0</v>
       </c>
       <c r="L10" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="O10" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="P10" t="n">
         <v>5.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="V10" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="X10" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG10" t="n">
         <v>7.0</v>
@@ -7740,25 +8052,16 @@
         <v>5.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AK10" t="n">
         <v>6.0</v>
       </c>
       <c r="AL10" t="n">
         <v>6.0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.0</v>
       </c>
     </row>
     <row r="11">
@@ -7766,124 +8069,115 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I11" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="K11" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -7891,124 +8185,115 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F12" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="G12" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="M12" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="N12" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="O12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="P12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="T12" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="U12" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="V12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="W12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="X12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -8016,40 +8301,40 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="F13" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="K13" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="L13" t="n">
         <v>11.0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="N13" t="n">
         <v>12.0</v>
@@ -8058,10 +8343,10 @@
         <v>11.0</v>
       </c>
       <c r="P13" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="R13" t="n">
         <v>12.0</v>
@@ -8070,70 +8355,61 @@
         <v>12.0</v>
       </c>
       <c r="T13" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="U13" t="n">
         <v>13.0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="W13" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -8141,40 +8417,40 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="L14" t="n">
         <v>12.0</v>
       </c>
       <c r="M14" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N14" t="n">
         <v>13.0</v>
@@ -8183,82 +8459,73 @@
         <v>14.0</v>
       </c>
       <c r="P14" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="T14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="V14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="W14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="X14" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -8266,124 +8533,115 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="F15" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H15" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="J15" t="n">
         <v>12.0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="L15" t="n">
         <v>13.0</v>
       </c>
       <c r="M15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="O15" t="n">
         <v>12.0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="S15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="U15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="V15" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="W15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="X15" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -8391,124 +8649,115 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="M16" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="N16" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="P16" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="V16" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="W16" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -8516,123 +8765,346 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>305</v>
       </c>
-      <c r="C17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="C18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AL19" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -8652,7 +9124,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8737,9 +9209,6 @@
       </c>
       <c r="AD1" t="s">
         <v>85</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -8747,76 +9216,76 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
         <v>6.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L2" t="n">
         <v>11.0</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="N2" t="n">
         <v>10.0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="P2" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="V2" t="n">
         <v>7.0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z2" t="n">
         <v>8.0</v>
@@ -8825,15 +9294,12 @@
         <v>8.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE2" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -8842,28 +9308,28 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="F3" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="J3" t="n">
         <v>12.0</v>
@@ -8875,46 +9341,46 @@
         <v>12.0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O3" t="n">
         <v>14.0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="R3" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="T3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="U3" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="V3" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="X3" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA3" t="n">
         <v>16.0</v>
@@ -8926,9 +9392,6 @@
         <v>16.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AE3" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -8937,67 +9400,67 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
         <v>7.0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H4" t="n">
         <v>7.0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
         <v>4.0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="S4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="W4" t="n">
         <v>3.0</v>
@@ -9009,22 +9472,19 @@
         <v>3.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC4" t="n">
         <v>4.0</v>
       </c>
       <c r="AD4" t="n">
         <v>4.0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -9032,28 +9492,28 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" t="n">
         <v>2.0</v>
@@ -9062,19 +9522,19 @@
         <v>2.0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N5" t="n">
         <v>3.0</v>
       </c>
       <c r="O5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q5" t="n">
         <v>2.0</v>
@@ -9089,7 +9549,7 @@
         <v>2.0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V5" t="n">
         <v>2.0</v>
@@ -9104,22 +9564,19 @@
         <v>2.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB5" t="n">
         <v>2.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -9127,93 +9584,90 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F6" t="n">
         <v>14.0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="I6" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="J6" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K6" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="N6" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O6" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="P6" t="n">
         <v>11.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="S6" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="T6" t="n">
         <v>14.0</v>
       </c>
       <c r="U6" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="V6" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="W6" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC6" t="n">
         <v>9.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AE6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -9222,7 +9676,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -9231,46 +9685,46 @@
         <v>8.0</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H7" t="n">
         <v>12.0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="M7" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="N7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O7" t="n">
         <v>15.0</v>
       </c>
       <c r="P7" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="S7" t="n">
         <v>16.0</v>
@@ -9279,37 +9733,34 @@
         <v>16.0</v>
       </c>
       <c r="U7" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="V7" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC7" t="n">
         <v>11.0</v>
       </c>
       <c r="AD7" t="n">
         <v>11.0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -9317,67 +9768,67 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
         <v>9.0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H8" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K8" t="n">
         <v>5.0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="M8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="O8" t="n">
         <v>6.0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="T8" t="n">
         <v>5.0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="V8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="W8" t="n">
         <v>5.0</v>
@@ -9395,16 +9846,13 @@
         <v>5.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC8" t="n">
         <v>5.0</v>
       </c>
       <c r="AD8" t="n">
         <v>5.0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -9412,10 +9860,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
         <v>2.0</v>
@@ -9424,58 +9872,58 @@
         <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" t="n">
         <v>3.0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="L9" t="n">
         <v>6.0</v>
       </c>
       <c r="M9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="N9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="U9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="W9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="X9" t="n">
         <v>6.0</v>
@@ -9490,15 +9938,12 @@
         <v>6.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC9" t="n">
         <v>6.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AE9" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -9507,10 +9952,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
         <v>5.0</v>
@@ -9519,34 +9964,34 @@
         <v>5.0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="L10" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="M10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N10" t="n">
         <v>11.0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P10" t="n">
         <v>12.0</v>
@@ -9555,46 +10000,43 @@
         <v>13.0</v>
       </c>
       <c r="R10" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="S10" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="U10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="V10" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="X10" t="n">
         <v>11.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA10" t="n">
         <v>11.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC10" t="n">
         <v>12.0</v>
       </c>
       <c r="AD10" t="n">
         <v>12.0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -9602,94 +10044,91 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="K11" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="N11" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="O11" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="P11" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="T11" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="V11" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="W11" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="X11" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
@@ -9697,94 +10136,91 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="E12" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H12" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="K12" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="L12" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="M12" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="N12" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="O12" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P12" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="S12" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="U12" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="V12" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="W12" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="X12" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
@@ -9792,94 +10228,91 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="N13" t="n">
         <v>6.0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="S13" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="X13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -9887,94 +10320,91 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="E14" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="H14" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="K14" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="L14" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="N14" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="P14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -9982,94 +10412,91 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
       </c>
       <c r="D15" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="F15" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="G15" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="M15" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="N15" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="O15" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="P15" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="S15" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="T15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="U15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="V15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="W15" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="X15" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -10077,94 +10504,91 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="F16" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="G16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="H16" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="K16" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="M16" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="N16" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="O16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="P16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="T16" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="U16" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="V16" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -10172,93 +10596,274 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C17" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AE17" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -10278,7 +10883,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10306,6 +10911,12 @@
       </c>
       <c r="K1" t="s">
         <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -10313,7 +10924,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C2" t="n">
         <v>9.0</v>
@@ -10340,6 +10951,12 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -10348,7 +10965,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -10375,7 +10992,13 @@
         <v>13.0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -10383,7 +11006,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -10410,6 +11033,12 @@
         <v>7.0</v>
       </c>
       <c r="K4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M4" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -10418,7 +11047,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -10445,7 +11074,13 @@
         <v>9.0</v>
       </c>
       <c r="K5" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -10453,7 +11088,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -10481,6 +11116,12 @@
       </c>
       <c r="K6" t="n">
         <v>11.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -10488,7 +11129,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -10515,6 +11156,12 @@
         <v>2.0</v>
       </c>
       <c r="K7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -10523,7 +11170,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -10550,6 +11197,12 @@
         <v>3.0</v>
       </c>
       <c r="K8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -10558,7 +11211,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -10586,6 +11239,12 @@
       </c>
       <c r="K9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
@@ -10593,7 +11252,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -10620,7 +11279,13 @@
         <v>8.0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -10628,7 +11293,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -10655,6 +11320,12 @@
         <v>4.0</v>
       </c>
       <c r="K11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -10663,7 +11334,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -10690,7 +11361,13 @@
         <v>5.0</v>
       </c>
       <c r="K12" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -10698,7 +11375,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -10725,7 +11402,13 @@
         <v>11.0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
@@ -10733,7 +11416,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -10760,7 +11443,13 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
@@ -10768,7 +11457,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -10796,6 +11485,12 @@
       </c>
       <c r="K15" t="n">
         <v>16.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -10803,7 +11498,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -10831,6 +11526,12 @@
       </c>
       <c r="K16" t="n">
         <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
@@ -10838,7 +11539,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -10865,7 +11566,13 @@
         <v>14.0</v>
       </c>
       <c r="K17" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -10884,7 +11591,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10980,16 +11687,19 @@
         <v>88</v>
       </c>
       <c r="AH1" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="AJ1" t="s">
         <v>200</v>
       </c>
       <c r="AK1" t="s">
         <v>201</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2">
@@ -10997,7 +11707,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -11102,6 +11812,9 @@
         <v>2.0</v>
       </c>
       <c r="AK2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -11110,7 +11823,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -11216,6 +11929,9 @@
       </c>
       <c r="AK3" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -11223,7 +11939,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -11328,6 +12044,9 @@
         <v>10.0</v>
       </c>
       <c r="AK4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -11336,7 +12055,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -11441,6 +12160,9 @@
         <v>4.0</v>
       </c>
       <c r="AK5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -11449,7 +12171,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -11554,6 +12276,9 @@
         <v>9.0</v>
       </c>
       <c r="AK6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -11562,7 +12287,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -11667,6 +12392,9 @@
         <v>6.0</v>
       </c>
       <c r="AK7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -11675,7 +12403,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -11781,6 +12509,9 @@
       </c>
       <c r="AK8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -11788,7 +12519,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -11893,6 +12624,9 @@
         <v>5.0</v>
       </c>
       <c r="AK9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -11901,7 +12635,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -12006,6 +12740,9 @@
         <v>3.0</v>
       </c>
       <c r="AK10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -12014,7 +12751,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -12119,6 +12856,9 @@
         <v>1.0</v>
       </c>
       <c r="AK11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -12233,13 +12973,19 @@
       <c r="AG1" t="s">
         <v>88</v>
       </c>
+      <c r="AH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -12332,6 +13078,12 @@
         <v>7.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -12340,7 +13092,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -12433,6 +13185,12 @@
         <v>11.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -12441,7 +13199,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -12534,6 +13292,12 @@
         <v>12.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -12542,7 +13306,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -12636,6 +13400,12 @@
       </c>
       <c r="AG5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -12643,7 +13413,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -12736,6 +13506,12 @@
         <v>10.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -12744,7 +13520,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -12837,6 +13613,12 @@
         <v>8.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -12845,7 +13627,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
         <v>11.0</v>
@@ -12939,6 +13721,12 @@
       </c>
       <c r="AG8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -12946,7 +13734,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -13039,6 +13827,12 @@
         <v>9.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -13047,7 +13841,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -13140,6 +13934,12 @@
         <v>1.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -13148,7 +13948,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -13241,6 +14041,12 @@
         <v>2.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -13249,7 +14055,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -13342,6 +14148,12 @@
         <v>6.0</v>
       </c>
       <c r="AG12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -13350,7 +14162,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -13444,6 +14256,12 @@
       </c>
       <c r="AG13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -13462,7 +14280,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13481,6 +14299,12 @@
       </c>
       <c r="H1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -13488,7 +14312,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -13507,6 +14331,12 @@
       </c>
       <c r="H2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -13514,7 +14344,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="n">
         <v>15.0</v>
@@ -13533,6 +14363,12 @@
       </c>
       <c r="H3" t="n">
         <v>15.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -13540,7 +14376,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -13559,6 +14395,12 @@
       </c>
       <c r="H4" t="n">
         <v>2.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -13566,7 +14408,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -13585,6 +14427,12 @@
       </c>
       <c r="H5" t="n">
         <v>19.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -13592,7 +14440,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -13611,6 +14459,12 @@
       </c>
       <c r="H6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
@@ -13618,7 +14472,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -13637,6 +14491,12 @@
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
@@ -13644,7 +14504,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -13663,6 +14523,12 @@
       </c>
       <c r="H8" t="n">
         <v>9.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
@@ -13670,7 +14536,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -13689,6 +14555,12 @@
       </c>
       <c r="H9" t="n">
         <v>18.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
@@ -13696,7 +14568,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -13715,6 +14587,12 @@
       </c>
       <c r="H10" t="n">
         <v>1.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -13722,7 +14600,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -13741,6 +14619,12 @@
       </c>
       <c r="H11" t="n">
         <v>6.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -13748,7 +14632,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -13767,6 +14651,12 @@
       </c>
       <c r="H12" t="n">
         <v>14.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
@@ -13774,7 +14664,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -13793,6 +14683,12 @@
       </c>
       <c r="H13" t="n">
         <v>16.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -13800,7 +14696,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -13819,6 +14715,12 @@
       </c>
       <c r="H14" t="n">
         <v>12.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -13826,7 +14728,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -13844,6 +14746,12 @@
         <v>20.0</v>
       </c>
       <c r="H15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -13852,7 +14760,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -13871,6 +14779,12 @@
       </c>
       <c r="H16" t="n">
         <v>13.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -13878,7 +14792,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -13897,6 +14811,12 @@
       </c>
       <c r="H17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
@@ -13904,7 +14824,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -13923,6 +14843,12 @@
       </c>
       <c r="H18" t="n">
         <v>17.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
@@ -13930,7 +14856,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -13949,6 +14875,12 @@
       </c>
       <c r="H19" t="n">
         <v>11.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -13956,7 +14888,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -13975,6 +14907,12 @@
       </c>
       <c r="H20" t="n">
         <v>7.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="21">
@@ -13982,7 +14920,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -14001,6 +14939,12 @@
       </c>
       <c r="H21" t="n">
         <v>4.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -14019,7 +14963,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14087,7 +15031,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" t="n">
         <v>11.0</v>
@@ -14155,7 +15099,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" t="n">
         <v>12.0</v>
@@ -14223,7 +15167,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -14291,7 +15235,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -14359,7 +15303,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -14427,7 +15371,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -14495,7 +15439,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
         <v>7.0</v>
@@ -14563,7 +15507,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" t="n">
         <v>8.0</v>
@@ -14631,7 +15575,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -14699,7 +15643,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
         <v>16.0</v>
@@ -14767,7 +15711,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -14835,7 +15779,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -14903,7 +15847,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -14971,7 +15915,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -15039,7 +15983,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -15107,7 +16051,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -15175,7 +16119,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15243,7 +16187,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -15322,7 +16266,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15410,6 +16354,18 @@
       </c>
       <c r="AE1" t="s">
         <v>86</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -15417,7 +16373,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -15505,6 +16461,18 @@
       </c>
       <c r="AE2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -15512,7 +16480,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -15599,6 +16567,18 @@
         <v>10.0</v>
       </c>
       <c r="AE3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -15607,7 +16587,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -15695,6 +16675,18 @@
       </c>
       <c r="AE4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -15702,7 +16694,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -15789,6 +16781,18 @@
         <v>1.0</v>
       </c>
       <c r="AE5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -15797,7 +16801,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -15884,6 +16888,18 @@
         <v>2.0</v>
       </c>
       <c r="AE6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -15892,7 +16908,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -15979,6 +16995,18 @@
         <v>9.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -15987,7 +17015,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -16074,6 +17102,18 @@
         <v>8.0</v>
       </c>
       <c r="AE8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -16082,7 +17122,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16170,6 +17210,18 @@
       </c>
       <c r="AE9" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -16177,7 +17229,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
@@ -16264,6 +17316,18 @@
         <v>3.0</v>
       </c>
       <c r="AE10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -16272,7 +17336,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
@@ -16359,6 +17423,18 @@
         <v>12.0</v>
       </c>
       <c r="AE11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -16367,7 +17443,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -16454,6 +17530,18 @@
         <v>11.0</v>
       </c>
       <c r="AE12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -16462,7 +17550,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -16550,6 +17638,18 @@
       </c>
       <c r="AE13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -16568,7 +17668,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16593,6 +17693,12 @@
       </c>
       <c r="J1" t="s">
         <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -16600,7 +17706,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -16625,6 +17731,12 @@
       </c>
       <c r="J2" t="n">
         <v>7.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -16632,7 +17744,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -16656,7 +17768,13 @@
         <v>6.0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -16664,7 +17782,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -16688,6 +17806,12 @@
         <v>12.0</v>
       </c>
       <c r="J4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L4" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -16696,7 +17820,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -16720,6 +17844,12 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -16728,7 +17858,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -16752,6 +17882,12 @@
         <v>3.0</v>
       </c>
       <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -16760,7 +17896,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -16784,6 +17920,12 @@
         <v>8.0</v>
       </c>
       <c r="J7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L7" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -16792,7 +17934,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -16817,6 +17959,12 @@
       </c>
       <c r="J8" t="n">
         <v>4.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -16824,7 +17972,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -16848,6 +17996,12 @@
         <v>2.0</v>
       </c>
       <c r="J9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L9" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -16856,7 +18010,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" t="n">
         <v>6.0</v>
@@ -16881,6 +18035,12 @@
       </c>
       <c r="J10" t="n">
         <v>8.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -16888,7 +18048,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -16913,6 +18073,12 @@
       </c>
       <c r="J11" t="n">
         <v>9.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -16920,7 +18086,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -16945,6 +18111,12 @@
       </c>
       <c r="J12" t="n">
         <v>10.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -16952,7 +18124,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -16977,6 +18149,12 @@
       </c>
       <c r="J13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -16995,7 +18173,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17044,6 +18222,15 @@
       </c>
       <c r="R1" t="s">
         <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -17051,7 +18238,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -17099,7 +18286,16 @@
         <v>6.0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -17107,7 +18303,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -17156,6 +18352,15 @@
       </c>
       <c r="R3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -17163,7 +18368,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -17211,6 +18416,15 @@
         <v>8.0</v>
       </c>
       <c r="R4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -17219,7 +18433,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -17268,6 +18482,15 @@
       </c>
       <c r="R5" t="n">
         <v>3.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -17275,7 +18498,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -17323,6 +18546,15 @@
         <v>9.0</v>
       </c>
       <c r="R6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -17331,7 +18563,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -17379,6 +18611,15 @@
         <v>1.0</v>
       </c>
       <c r="R7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -17387,7 +18628,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -17436,6 +18677,15 @@
       </c>
       <c r="R8" t="n">
         <v>7.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -17443,7 +18693,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -17491,6 +18741,15 @@
         <v>5.0</v>
       </c>
       <c r="R9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U9" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -17499,7 +18758,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -17547,6 +18806,15 @@
         <v>4.0</v>
       </c>
       <c r="R10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U10" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -17555,7 +18823,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -17603,6 +18871,15 @@
         <v>10.0</v>
       </c>
       <c r="R11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -17622,7 +18899,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17662,6 +18939,15 @@
       </c>
       <c r="O1" t="s">
         <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -17669,7 +18955,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -17708,6 +18994,15 @@
         <v>11.0</v>
       </c>
       <c r="O2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -17716,7 +19011,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -17756,6 +19051,15 @@
       </c>
       <c r="O3" t="n">
         <v>8.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -17763,7 +19067,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -17802,6 +19106,15 @@
         <v>6.0</v>
       </c>
       <c r="O4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -17810,7 +19123,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -17850,6 +19163,15 @@
       </c>
       <c r="O5" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -17857,7 +19179,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -17897,6 +19219,15 @@
       </c>
       <c r="O6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -17904,7 +19235,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -17944,6 +19275,15 @@
       </c>
       <c r="O7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -17951,7 +19291,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -17990,6 +19330,15 @@
         <v>1.0</v>
       </c>
       <c r="O8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -17998,7 +19347,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -18037,6 +19386,15 @@
         <v>4.0</v>
       </c>
       <c r="O9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -18045,7 +19403,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -18085,6 +19443,15 @@
       </c>
       <c r="O10" t="n">
         <v>1.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -18092,7 +19459,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -18132,6 +19499,15 @@
       </c>
       <c r="O11" t="n">
         <v>11.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
@@ -18139,7 +19515,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -18179,6 +19555,15 @@
       </c>
       <c r="O12" t="n">
         <v>14.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
@@ -18186,7 +19571,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -18226,6 +19611,15 @@
       </c>
       <c r="O13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
@@ -18233,7 +19627,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -18273,6 +19667,15 @@
       </c>
       <c r="O14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -18280,7 +19683,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -18320,6 +19723,15 @@
       </c>
       <c r="O15" t="n">
         <v>15.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
@@ -18327,7 +19739,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -18366,6 +19778,15 @@
         <v>17.0</v>
       </c>
       <c r="O16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R16" t="n">
         <v>17.0</v>
       </c>
     </row>
@@ -18374,7 +19795,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -18414,6 +19835,15 @@
       </c>
       <c r="O17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
@@ -18421,7 +19851,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -18460,6 +19890,15 @@
         <v>18.0</v>
       </c>
       <c r="O18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R18" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -18468,7 +19907,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -18508,6 +19947,15 @@
       </c>
       <c r="O19" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -18526,7 +19974,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18622,10 +20070,10 @@
         <v>88</v>
       </c>
       <c r="AH1" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="AJ1" t="s">
         <v>200</v>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="354">
   <si>
     <t>arg_teams</t>
   </si>
@@ -77,6 +77,9 @@
     <t>X15</t>
   </si>
   <si>
+    <t>X16</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
   </si>
   <si>
     <t>aut_teams</t>
-  </si>
-  <si>
-    <t>X16</t>
   </si>
   <si>
     <t>X17</t>
@@ -1189,13 +1189,16 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -1242,13 +1245,16 @@
       <c r="Q2" t="n">
         <v>11.0</v>
       </c>
+      <c r="R2" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1294,14 +1300,17 @@
       </c>
       <c r="Q3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -1348,13 +1357,16 @@
       <c r="Q4" t="n">
         <v>16.0</v>
       </c>
+      <c r="R4" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -1399,15 +1411,18 @@
         <v>25.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -1452,15 +1467,18 @@
         <v>12.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -1505,15 +1523,18 @@
         <v>13.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -1558,15 +1579,18 @@
         <v>4.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1611,15 +1635,18 @@
         <v>21.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -1664,15 +1691,18 @@
         <v>18.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -1717,15 +1747,18 @@
         <v>6.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1771,14 +1804,17 @@
       </c>
       <c r="Q12" t="n">
         <v>3.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -1823,15 +1859,18 @@
         <v>7.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
         <v>15.0</v>
@@ -1876,15 +1915,18 @@
         <v>19.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -1929,15 +1971,18 @@
         <v>14.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="n">
         <v>24.0</v>
@@ -1982,15 +2027,18 @@
         <v>20.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
         <v>25.0</v>
@@ -2035,15 +2083,18 @@
         <v>22.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -2088,15 +2139,18 @@
         <v>8.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="n">
         <v>26.0</v>
@@ -2143,13 +2197,16 @@
       <c r="Q19" t="n">
         <v>27.0</v>
       </c>
+      <c r="R19" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -2194,15 +2251,18 @@
         <v>28.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>16.0</v>
@@ -2247,15 +2307,18 @@
         <v>1.0</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R21" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
         <v>27.0</v>
@@ -2302,13 +2365,16 @@
       <c r="Q22" t="n">
         <v>4.0</v>
       </c>
+      <c r="R22" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -2355,13 +2421,16 @@
       <c r="Q23" t="n">
         <v>24.0</v>
       </c>
+      <c r="R23" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -2406,15 +2475,18 @@
         <v>23.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -2461,13 +2533,16 @@
       <c r="Q25" t="n">
         <v>10.0</v>
       </c>
+      <c r="R25" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -2512,15 +2587,18 @@
         <v>26.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -2565,15 +2643,18 @@
         <v>11.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
         <v>8.0</v>
@@ -2618,15 +2699,18 @@
         <v>17.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="n">
         <v>9.0</v>
@@ -2671,7 +2755,10 @@
         <v>15.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2824,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
@@ -2782,12 +2869,12 @@
         <v>16.0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>225</v>
@@ -2837,7 +2924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>226</v>
@@ -2887,7 +2974,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>227</v>
@@ -2932,12 +3019,12 @@
         <v>17.0</v>
       </c>
       <c r="P5" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>228</v>
@@ -2987,7 +3074,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>229</v>
@@ -3037,7 +3124,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>230</v>
@@ -3082,12 +3169,12 @@
         <v>18.0</v>
       </c>
       <c r="P8" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>231</v>
@@ -3132,12 +3219,12 @@
         <v>22.0</v>
       </c>
       <c r="P9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>232</v>
@@ -3187,7 +3274,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>233</v>
@@ -3237,7 +3324,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>234</v>
@@ -3287,7 +3374,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>235</v>
@@ -3337,7 +3424,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>236</v>
@@ -3387,7 +3474,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
@@ -3437,7 +3524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>238</v>
@@ -3487,7 +3574,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>239</v>
@@ -3537,7 +3624,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>240</v>
@@ -3582,12 +3669,12 @@
         <v>20.0</v>
       </c>
       <c r="P18" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>241</v>
@@ -3637,7 +3724,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>242</v>
@@ -3687,7 +3774,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
@@ -3737,7 +3824,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>244</v>
@@ -3787,7 +3874,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>245</v>
@@ -3832,12 +3919,12 @@
         <v>21.0</v>
       </c>
       <c r="P23" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>246</v>
@@ -3887,7 +3974,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>247</v>
@@ -3932,12 +4019,12 @@
         <v>23.0</v>
       </c>
       <c r="P25" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>248</v>
@@ -3982,12 +4069,12 @@
         <v>24.0</v>
       </c>
       <c r="P26" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>249</v>
@@ -4037,7 +4124,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>250</v>
@@ -4082,12 +4169,12 @@
         <v>26.0</v>
       </c>
       <c r="P28" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>251</v>
@@ -4132,7 +4219,7 @@
         <v>28.0</v>
       </c>
       <c r="P29" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -4186,7 +4273,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>253</v>
@@ -4224,7 +4311,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>254</v>
@@ -4262,7 +4349,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -4300,7 +4387,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>256</v>
@@ -4338,7 +4425,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>257</v>
@@ -4376,7 +4463,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>258</v>
@@ -4414,7 +4501,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>259</v>
@@ -4452,7 +4539,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>260</v>
@@ -4490,7 +4577,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>261</v>
@@ -4528,7 +4615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>262</v>
@@ -4566,7 +4653,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
@@ -4604,7 +4691,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>264</v>
@@ -4642,7 +4729,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>265</v>
@@ -4680,7 +4767,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>266</v>
@@ -4718,7 +4805,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>267</v>
@@ -4756,7 +4843,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>268</v>
@@ -4856,7 +4943,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -4915,7 +5002,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>270</v>
@@ -5025,7 +5112,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>271</v>
@@ -5135,7 +5222,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>272</v>
@@ -5245,7 +5332,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>273</v>
@@ -5355,7 +5442,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>274</v>
@@ -5465,7 +5552,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>275</v>
@@ -5575,7 +5662,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
@@ -5685,7 +5772,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>277</v>
@@ -5795,7 +5882,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>278</v>
@@ -5905,7 +5992,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>279</v>
@@ -6015,7 +6102,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>280</v>
@@ -6125,7 +6212,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>281</v>
@@ -6235,7 +6322,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>282</v>
@@ -6345,7 +6432,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>283</v>
@@ -6455,7 +6542,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>284</v>
@@ -6565,7 +6652,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>285</v>
@@ -6675,7 +6762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>286</v>
@@ -6785,7 +6872,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>287</v>
@@ -6957,7 +7044,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -7022,7 +7109,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>289</v>
@@ -7138,7 +7225,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>290</v>
@@ -7254,7 +7341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>291</v>
@@ -7370,7 +7457,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>292</v>
@@ -7486,7 +7573,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>293</v>
@@ -7602,7 +7689,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>294</v>
@@ -7718,7 +7805,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>295</v>
@@ -7834,7 +7921,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>296</v>
@@ -7950,7 +8037,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>297</v>
@@ -8066,7 +8153,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>298</v>
@@ -8182,7 +8269,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>299</v>
@@ -8298,7 +8385,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>300</v>
@@ -8414,7 +8501,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>301</v>
@@ -8530,7 +8617,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>302</v>
@@ -8646,7 +8733,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>303</v>
@@ -8762,7 +8849,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>304</v>
@@ -8878,7 +8965,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>305</v>
@@ -8994,7 +9081,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
@@ -9172,7 +9259,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -9213,7 +9300,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>308</v>
@@ -9305,7 +9392,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>309</v>
@@ -9397,7 +9484,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>310</v>
@@ -9489,7 +9576,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>311</v>
@@ -9581,7 +9668,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>312</v>
@@ -9673,7 +9760,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>313</v>
@@ -9765,7 +9852,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>314</v>
@@ -9857,7 +9944,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>315</v>
@@ -9949,7 +10036,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>316</v>
@@ -10041,7 +10128,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>317</v>
@@ -10133,7 +10220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>318</v>
@@ -10225,7 +10312,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>319</v>
@@ -10317,7 +10404,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>320</v>
@@ -10409,7 +10496,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>321</v>
@@ -10501,7 +10588,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>322</v>
@@ -10593,7 +10680,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>323</v>
@@ -10685,7 +10772,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>324</v>
@@ -10777,7 +10864,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>325</v>
@@ -10921,7 +11008,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>327</v>
@@ -10962,7 +11049,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>328</v>
@@ -11003,7 +11090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>329</v>
@@ -11044,7 +11131,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>330</v>
@@ -11085,7 +11172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>331</v>
@@ -11126,7 +11213,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>332</v>
@@ -11167,7 +11254,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>333</v>
@@ -11208,7 +11295,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>334</v>
@@ -11249,7 +11336,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>335</v>
@@ -11290,7 +11377,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>336</v>
@@ -11331,7 +11418,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>337</v>
@@ -11372,7 +11459,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>338</v>
@@ -11413,7 +11500,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>339</v>
@@ -11454,7 +11541,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>340</v>
@@ -11495,7 +11582,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>341</v>
@@ -11536,7 +11623,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -11639,7 +11726,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -11704,7 +11791,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>344</v>
@@ -11820,7 +11907,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>345</v>
@@ -11936,7 +12023,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>346</v>
@@ -12052,7 +12139,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>347</v>
@@ -12168,7 +12255,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>348</v>
@@ -12284,7 +12371,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>349</v>
@@ -12400,7 +12487,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>350</v>
@@ -12516,7 +12603,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>351</v>
@@ -12632,7 +12719,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>352</v>
@@ -12748,7 +12835,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>353</v>
@@ -12878,7 +12965,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12926,7 +13013,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -12982,7 +13069,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -13089,7 +13176,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
@@ -13196,7 +13283,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
@@ -13303,7 +13390,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -13410,7 +13497,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
@@ -13517,7 +13604,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -13624,7 +13711,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
@@ -13731,7 +13818,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
@@ -13838,7 +13925,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -13945,7 +14032,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -14052,7 +14139,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -14159,7 +14246,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -14306,10 +14393,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -14338,10 +14431,16 @@
       <c r="J2" t="n">
         <v>9.0</v>
       </c>
+      <c r="K2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
@@ -14370,10 +14469,16 @@
       <c r="J3" t="n">
         <v>6.0</v>
       </c>
+      <c r="K3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
@@ -14402,10 +14507,16 @@
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
+      <c r="K4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
@@ -14432,12 +14543,18 @@
         <v>17.0</v>
       </c>
       <c r="J5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
@@ -14466,10 +14583,16 @@
       <c r="J6" t="n">
         <v>13.0</v>
       </c>
+      <c r="K6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
@@ -14498,10 +14621,16 @@
       <c r="J7" t="n">
         <v>7.0</v>
       </c>
+      <c r="K7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -14530,10 +14659,16 @@
       <c r="J8" t="n">
         <v>14.0</v>
       </c>
+      <c r="K8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>111</v>
@@ -14560,12 +14695,18 @@
         <v>19.0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
@@ -14594,10 +14735,16 @@
       <c r="J10" t="n">
         <v>2.0</v>
       </c>
+      <c r="K10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>113</v>
@@ -14626,10 +14773,16 @@
       <c r="J11" t="n">
         <v>4.0</v>
       </c>
+      <c r="K11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -14656,12 +14809,18 @@
         <v>16.0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -14690,10 +14849,16 @@
       <c r="J13" t="n">
         <v>8.0</v>
       </c>
+      <c r="K13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -14722,10 +14887,16 @@
       <c r="J14" t="n">
         <v>10.0</v>
       </c>
+      <c r="K14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>117</v>
@@ -14754,10 +14925,16 @@
       <c r="J15" t="n">
         <v>20.0</v>
       </c>
+      <c r="K15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
@@ -14784,12 +14961,18 @@
         <v>15.0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -14818,10 +15001,16 @@
       <c r="J17" t="n">
         <v>11.0</v>
       </c>
+      <c r="K17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -14848,12 +15037,18 @@
         <v>18.0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -14882,10 +15077,16 @@
       <c r="J19" t="n">
         <v>3.0</v>
       </c>
+      <c r="K19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -14914,10 +15115,16 @@
       <c r="J20" t="n">
         <v>12.0</v>
       </c>
+      <c r="K20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -14945,6 +15152,12 @@
       </c>
       <c r="J21" t="n">
         <v>5.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -15011,7 +15224,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -15028,7 +15241,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -15096,7 +15309,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -15164,7 +15377,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
@@ -15232,7 +15445,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
@@ -15300,7 +15513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -15368,7 +15581,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
@@ -15436,7 +15649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -15504,7 +15717,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
@@ -15572,7 +15785,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
@@ -15640,7 +15853,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>134</v>
@@ -15708,7 +15921,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
@@ -15776,7 +15989,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
@@ -15844,7 +16057,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
@@ -15912,7 +16125,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
@@ -15980,7 +16193,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
@@ -16048,7 +16261,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
@@ -16116,7 +16329,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>141</v>
@@ -16184,7 +16397,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>142</v>
@@ -16314,7 +16527,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -16370,7 +16583,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>144</v>
@@ -16477,7 +16690,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>145</v>
@@ -16584,7 +16797,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
@@ -16691,7 +16904,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
@@ -16798,7 +17011,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>148</v>
@@ -16905,7 +17118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>149</v>
@@ -17012,7 +17225,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>150</v>
@@ -17119,7 +17332,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>151</v>
@@ -17226,7 +17439,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>152</v>
@@ -17333,7 +17546,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>153</v>
@@ -17440,7 +17653,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
@@ -17547,7 +17760,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -17703,7 +17916,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -17741,7 +17954,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>158</v>
@@ -17779,7 +17992,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -17817,7 +18030,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>160</v>
@@ -17855,7 +18068,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>161</v>
@@ -17893,7 +18106,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
@@ -17931,7 +18144,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>163</v>
@@ -17969,7 +18182,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>164</v>
@@ -18007,7 +18220,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>165</v>
@@ -18045,7 +18258,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>166</v>
@@ -18083,7 +18296,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>167</v>
@@ -18121,7 +18334,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>168</v>
@@ -18221,7 +18434,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -18235,7 +18448,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
@@ -18300,7 +18513,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>171</v>
@@ -18365,7 +18578,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>172</v>
@@ -18430,7 +18643,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>173</v>
@@ -18495,7 +18708,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>174</v>
@@ -18560,7 +18773,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
@@ -18625,7 +18838,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>176</v>
@@ -18690,7 +18903,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>177</v>
@@ -18755,7 +18968,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
@@ -18820,7 +19033,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>179</v>
@@ -18947,12 +19160,12 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>181</v>
@@ -19008,7 +19221,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>182</v>
@@ -19064,7 +19277,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
@@ -19120,7 +19333,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
@@ -19176,7 +19389,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>185</v>
@@ -19232,7 +19445,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>186</v>
@@ -19288,7 +19501,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -19344,7 +19557,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>188</v>
@@ -19400,7 +19613,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
@@ -19456,7 +19669,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
@@ -19512,7 +19725,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>191</v>
@@ -19568,7 +19781,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>192</v>
@@ -19624,7 +19837,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>193</v>
@@ -19680,7 +19893,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>194</v>
@@ -19736,7 +19949,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>195</v>
@@ -19792,7 +20005,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>196</v>
@@ -19848,7 +20061,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>197</v>
@@ -19904,7 +20117,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
@@ -20022,7 +20235,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
         <v>74</v>
@@ -20093,7 +20306,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>205</v>
@@ -20215,7 +20428,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
@@ -20337,7 +20550,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>207</v>
@@ -20459,7 +20672,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
@@ -20581,7 +20794,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>209</v>
@@ -20703,7 +20916,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>210</v>
@@ -20825,7 +21038,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>211</v>
@@ -20947,7 +21160,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -21069,7 +21282,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>213</v>
@@ -21191,7 +21404,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
@@ -21313,7 +21526,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>215</v>
@@ -21435,7 +21648,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>216</v>
@@ -21557,7 +21770,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>217</v>
@@ -21679,7 +21892,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>218</v>
@@ -21801,7 +22014,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>219</v>
@@ -21923,7 +22136,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -22045,7 +22258,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>221</v>
@@ -22167,7 +22380,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>222</v>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="354">
   <si>
     <t>arg_teams</t>
   </si>
@@ -80,6 +80,15 @@
     <t>X16</t>
   </si>
   <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -249,15 +258,6 @@
   </si>
   <si>
     <t>aut_teams</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
   </si>
   <si>
     <t>X20</t>
@@ -1192,13 +1192,22 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -1246,15 +1255,24 @@
         <v>11.0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1302,15 +1320,24 @@
         <v>5.0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -1358,15 +1385,24 @@
         <v>16.0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -1416,13 +1452,22 @@
       <c r="R5" t="n">
         <v>27.0</v>
       </c>
+      <c r="S5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -1472,13 +1517,22 @@
       <c r="R6" t="n">
         <v>13.0</v>
       </c>
+      <c r="S6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -1526,15 +1580,24 @@
         <v>12.0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -1582,15 +1645,24 @@
         <v>2.0</v>
       </c>
       <c r="R8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1638,15 +1710,24 @@
         <v>20.0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -1694,15 +1775,24 @@
         <v>17.0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -1750,15 +1840,24 @@
         <v>7.0</v>
       </c>
       <c r="R11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1806,15 +1905,24 @@
         <v>3.0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -1862,15 +1970,24 @@
         <v>8.0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
         <v>15.0</v>
@@ -1918,15 +2035,24 @@
         <v>21.0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -1974,15 +2100,24 @@
         <v>15.0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
         <v>24.0</v>
@@ -2030,15 +2165,24 @@
         <v>18.0</v>
       </c>
       <c r="R16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T16" t="n">
         <v>18.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
         <v>25.0</v>
@@ -2086,15 +2230,24 @@
         <v>23.0</v>
       </c>
       <c r="R17" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>23.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -2142,15 +2295,24 @@
         <v>6.0</v>
       </c>
       <c r="R18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
         <v>26.0</v>
@@ -2200,13 +2362,22 @@
       <c r="R19" t="n">
         <v>28.0</v>
       </c>
+      <c r="S19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -2256,13 +2427,22 @@
       <c r="R20" t="n">
         <v>26.0</v>
       </c>
+      <c r="S20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" t="n">
         <v>16.0</v>
@@ -2312,13 +2492,22 @@
       <c r="R21" t="n">
         <v>2.0</v>
       </c>
+      <c r="S21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" t="n">
         <v>27.0</v>
@@ -2368,13 +2557,22 @@
       <c r="R22" t="n">
         <v>5.0</v>
       </c>
+      <c r="S22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -2424,13 +2622,22 @@
       <c r="R23" t="n">
         <v>24.0</v>
       </c>
+      <c r="S23" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -2478,15 +2685,24 @@
         <v>22.0</v>
       </c>
       <c r="R24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="U24" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -2534,15 +2750,24 @@
         <v>10.0</v>
       </c>
       <c r="R25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U25" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -2592,13 +2817,22 @@
       <c r="R26" t="n">
         <v>25.0</v>
       </c>
+      <c r="S26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -2646,15 +2880,24 @@
         <v>9.0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C28" t="n">
         <v>8.0</v>
@@ -2702,15 +2945,24 @@
         <v>19.0</v>
       </c>
       <c r="R28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="U28" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
         <v>9.0</v>
@@ -2758,7 +3010,16 @@
         <v>14.0</v>
       </c>
       <c r="R29" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -2821,10 +3082,16 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
@@ -2869,12 +3136,18 @@
         <v>16.0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>225</v>
@@ -2921,10 +3194,16 @@
       <c r="P3" t="n">
         <v>6.0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>226</v>
@@ -2971,10 +3250,16 @@
       <c r="P4" t="n">
         <v>7.0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>227</v>
@@ -3019,12 +3304,18 @@
         <v>17.0</v>
       </c>
       <c r="P5" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>228</v>
@@ -3071,10 +3362,16 @@
       <c r="P6" t="n">
         <v>28.0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>229</v>
@@ -3119,12 +3416,18 @@
         <v>13.0</v>
       </c>
       <c r="P7" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>230</v>
@@ -3171,10 +3474,16 @@
       <c r="P8" t="n">
         <v>20.0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>231</v>
@@ -3219,12 +3528,18 @@
         <v>22.0</v>
       </c>
       <c r="P9" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>232</v>
@@ -3269,12 +3584,18 @@
         <v>11.0</v>
       </c>
       <c r="P10" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>233</v>
@@ -3321,10 +3642,16 @@
       <c r="P11" t="n">
         <v>3.0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>234</v>
@@ -3369,12 +3696,18 @@
         <v>14.0</v>
       </c>
       <c r="P12" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>235</v>
@@ -3419,12 +3752,18 @@
         <v>19.0</v>
       </c>
       <c r="P13" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>236</v>
@@ -3471,10 +3810,16 @@
       <c r="P14" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
@@ -3521,10 +3866,16 @@
       <c r="P15" t="n">
         <v>8.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>238</v>
@@ -3569,12 +3920,18 @@
         <v>15.0</v>
       </c>
       <c r="P16" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>239</v>
@@ -3619,12 +3976,18 @@
         <v>12.0</v>
       </c>
       <c r="P17" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>240</v>
@@ -3671,10 +4034,16 @@
       <c r="P18" t="n">
         <v>21.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>241</v>
@@ -3721,10 +4090,16 @@
       <c r="P19" t="n">
         <v>2.0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>242</v>
@@ -3769,12 +4144,18 @@
         <v>5.0</v>
       </c>
       <c r="P20" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
@@ -3821,10 +4202,16 @@
       <c r="P21" t="n">
         <v>11.0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>244</v>
@@ -3871,10 +4258,16 @@
       <c r="P22" t="n">
         <v>4.0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>245</v>
@@ -3921,10 +4314,16 @@
       <c r="P23" t="n">
         <v>23.0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>246</v>
@@ -3971,10 +4370,16 @@
       <c r="P24" t="n">
         <v>5.0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>247</v>
@@ -4019,12 +4424,18 @@
         <v>23.0</v>
       </c>
       <c r="P25" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>248</v>
@@ -4071,10 +4482,16 @@
       <c r="P26" t="n">
         <v>22.0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>249</v>
@@ -4121,10 +4538,16 @@
       <c r="P27" t="n">
         <v>27.0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>250</v>
@@ -4169,12 +4592,18 @@
         <v>26.0</v>
       </c>
       <c r="P28" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>251</v>
@@ -4219,7 +4648,13 @@
         <v>28.0</v>
       </c>
       <c r="P29" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -4270,10 +4705,13 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>253</v>
@@ -4306,12 +4744,15 @@
         <v>5.0</v>
       </c>
       <c r="L2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>254</v>
@@ -4344,12 +4785,15 @@
         <v>6.0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -4382,12 +4826,15 @@
         <v>12.0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>256</v>
@@ -4422,10 +4869,13 @@
       <c r="L5" t="n">
         <v>14.0</v>
       </c>
+      <c r="M5" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>257</v>
@@ -4460,10 +4910,13 @@
       <c r="L6" t="n">
         <v>15.0</v>
       </c>
+      <c r="M6" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>258</v>
@@ -4498,10 +4951,13 @@
       <c r="L7" t="n">
         <v>16.0</v>
       </c>
+      <c r="M7" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>259</v>
@@ -4536,10 +4992,13 @@
       <c r="L8" t="n">
         <v>1.0</v>
       </c>
+      <c r="M8" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>260</v>
@@ -4574,10 +5033,13 @@
       <c r="L9" t="n">
         <v>2.0</v>
       </c>
+      <c r="M9" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>261</v>
@@ -4610,12 +5072,15 @@
         <v>8.0</v>
       </c>
       <c r="L10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>262</v>
@@ -4648,12 +5113,15 @@
         <v>9.0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
@@ -4688,10 +5156,13 @@
       <c r="L12" t="n">
         <v>13.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>264</v>
@@ -4724,12 +5195,15 @@
         <v>7.0</v>
       </c>
       <c r="L13" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>265</v>
@@ -4764,10 +5238,13 @@
       <c r="L14" t="n">
         <v>4.0</v>
       </c>
+      <c r="M14" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>266</v>
@@ -4800,12 +5277,15 @@
         <v>10.0</v>
       </c>
       <c r="L15" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>267</v>
@@ -4838,12 +5318,15 @@
         <v>11.0</v>
       </c>
       <c r="L16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>268</v>
@@ -4876,6 +5359,9 @@
         <v>2.0</v>
       </c>
       <c r="L17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -4946,13 +5432,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -5002,7 +5488,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>270</v>
@@ -5112,7 +5598,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>271</v>
@@ -5222,7 +5708,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>272</v>
@@ -5332,7 +5818,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>273</v>
@@ -5442,7 +5928,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>274</v>
@@ -5552,7 +6038,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>275</v>
@@ -5662,7 +6148,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
@@ -5772,7 +6258,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>277</v>
@@ -5882,7 +6368,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>278</v>
@@ -5992,7 +6478,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>279</v>
@@ -6102,7 +6588,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>280</v>
@@ -6212,7 +6698,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>281</v>
@@ -6322,7 +6808,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>282</v>
@@ -6432,7 +6918,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>283</v>
@@ -6542,7 +7028,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>284</v>
@@ -6652,7 +7138,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>285</v>
@@ -6762,7 +7248,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>286</v>
@@ -6872,7 +7358,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>287</v>
@@ -7047,13 +7533,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -7109,7 +7595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>289</v>
@@ -7225,7 +7711,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>290</v>
@@ -7341,7 +7827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>291</v>
@@ -7457,7 +7943,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>292</v>
@@ -7573,7 +8059,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>293</v>
@@ -7689,7 +8175,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>294</v>
@@ -7805,7 +8291,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>295</v>
@@ -7921,7 +8407,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>296</v>
@@ -8037,7 +8523,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>297</v>
@@ -8153,7 +8639,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>298</v>
@@ -8269,7 +8755,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>299</v>
@@ -8385,7 +8871,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>300</v>
@@ -8501,7 +8987,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>301</v>
@@ -8617,7 +9103,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>302</v>
@@ -8733,7 +9219,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>303</v>
@@ -8849,7 +9335,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>304</v>
@@ -8965,7 +9451,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>305</v>
@@ -9081,7 +9567,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
@@ -9262,13 +9748,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -9300,7 +9786,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>308</v>
@@ -9392,7 +9878,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>309</v>
@@ -9484,7 +9970,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>310</v>
@@ -9576,7 +10062,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>311</v>
@@ -9668,7 +10154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>312</v>
@@ -9760,7 +10246,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>313</v>
@@ -9852,7 +10338,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>314</v>
@@ -9944,7 +10430,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>315</v>
@@ -10036,7 +10522,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>316</v>
@@ -10128,7 +10614,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>317</v>
@@ -10220,7 +10706,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>318</v>
@@ -10312,7 +10798,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>319</v>
@@ -10404,7 +10890,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>320</v>
@@ -10496,7 +10982,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>321</v>
@@ -10588,7 +11074,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>322</v>
@@ -10680,7 +11166,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>323</v>
@@ -10772,7 +11258,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>324</v>
@@ -10864,7 +11350,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>325</v>
@@ -11008,7 +11494,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>327</v>
@@ -11049,7 +11535,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>328</v>
@@ -11090,7 +11576,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>329</v>
@@ -11131,7 +11617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>330</v>
@@ -11172,7 +11658,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>331</v>
@@ -11213,7 +11699,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>332</v>
@@ -11254,7 +11740,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>333</v>
@@ -11295,7 +11781,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>334</v>
@@ -11336,7 +11822,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>335</v>
@@ -11377,7 +11863,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>336</v>
@@ -11418,7 +11904,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>337</v>
@@ -11459,7 +11945,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>338</v>
@@ -11500,7 +11986,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>339</v>
@@ -11541,7 +12027,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>340</v>
@@ -11582,7 +12068,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>341</v>
@@ -11623,7 +12109,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -11729,13 +12215,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -11791,7 +12277,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>344</v>
@@ -11907,7 +12393,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>345</v>
@@ -12023,7 +12509,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>346</v>
@@ -12139,7 +12625,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>347</v>
@@ -12255,7 +12741,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>348</v>
@@ -12371,7 +12857,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>349</v>
@@ -12487,7 +12973,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>350</v>
@@ -12603,7 +13089,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>351</v>
@@ -12719,7 +13205,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>352</v>
@@ -12835,7 +13321,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>353</v>
@@ -12965,7 +13451,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13016,13 +13502,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -13069,7 +13555,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -13176,7 +13662,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
@@ -13283,7 +13769,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
@@ -13390,7 +13876,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -13497,7 +13983,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
@@ -13604,7 +14090,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -13711,7 +14197,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
@@ -13818,7 +14304,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
@@ -13925,7 +14411,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -14032,7 +14518,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -14139,7 +14625,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -14246,7 +14732,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -14402,7 +14888,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -14440,7 +14926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
@@ -14478,7 +14964,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
@@ -14516,7 +15002,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
@@ -14554,7 +15040,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
@@ -14592,7 +15078,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
@@ -14630,7 +15116,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -14668,7 +15154,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>111</v>
@@ -14706,7 +15192,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
@@ -14744,7 +15230,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>113</v>
@@ -14782,7 +15268,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -14820,7 +15306,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -14858,7 +15344,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -14896,7 +15382,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>117</v>
@@ -14934,7 +15420,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
@@ -14972,7 +15458,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -15010,7 +15496,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -15048,7 +15534,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -15086,7 +15572,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -15124,7 +15610,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -15227,13 +15713,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -15241,7 +15727,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -15309,7 +15795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -15377,7 +15863,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
@@ -15445,7 +15931,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
@@ -15513,7 +15999,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -15581,7 +16067,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
@@ -15649,7 +16135,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -15717,7 +16203,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
@@ -15785,7 +16271,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
@@ -15853,7 +16339,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>134</v>
@@ -15921,7 +16407,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
@@ -15989,7 +16475,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
@@ -16057,7 +16543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
@@ -16125,7 +16611,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
@@ -16193,7 +16679,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
@@ -16261,7 +16747,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
@@ -16329,7 +16815,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>141</v>
@@ -16397,7 +16883,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>142</v>
@@ -16530,13 +17016,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -16583,7 +17069,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>144</v>
@@ -16690,7 +17176,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>145</v>
@@ -16797,7 +17283,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
@@ -16904,7 +17390,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
@@ -17011,7 +17497,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>148</v>
@@ -17118,7 +17604,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>149</v>
@@ -17225,7 +17711,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>150</v>
@@ -17332,7 +17818,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>151</v>
@@ -17439,7 +17925,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>152</v>
@@ -17546,7 +18032,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>153</v>
@@ -17653,7 +18139,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
@@ -17760,7 +18246,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -17913,10 +18399,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -17951,10 +18443,16 @@
       <c r="L2" t="n">
         <v>4.0</v>
       </c>
+      <c r="M2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>158</v>
@@ -17987,12 +18485,18 @@
         <v>6.0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -18027,10 +18531,16 @@
       <c r="L4" t="n">
         <v>12.0</v>
       </c>
+      <c r="M4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>160</v>
@@ -18065,10 +18575,16 @@
       <c r="L5" t="n">
         <v>1.0</v>
       </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>161</v>
@@ -18103,10 +18619,16 @@
       <c r="L6" t="n">
         <v>3.0</v>
       </c>
+      <c r="M6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
@@ -18139,12 +18661,18 @@
         <v>7.0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>163</v>
@@ -18177,12 +18705,18 @@
         <v>5.0</v>
       </c>
       <c r="L8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>164</v>
@@ -18217,10 +18751,16 @@
       <c r="L9" t="n">
         <v>2.0</v>
       </c>
+      <c r="M9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>165</v>
@@ -18255,10 +18795,16 @@
       <c r="L10" t="n">
         <v>10.0</v>
       </c>
+      <c r="M10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>166</v>
@@ -18293,10 +18839,16 @@
       <c r="L11" t="n">
         <v>11.0</v>
       </c>
+      <c r="M11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>167</v>
@@ -18331,10 +18883,16 @@
       <c r="L12" t="n">
         <v>8.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>168</v>
@@ -18368,6 +18926,12 @@
       </c>
       <c r="L13" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -18437,18 +19001,21 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
@@ -18508,12 +19075,15 @@
         <v>7.0</v>
       </c>
       <c r="U2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>171</v>
@@ -18575,10 +19145,13 @@
       <c r="U3" t="n">
         <v>3.0</v>
       </c>
+      <c r="V3" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>172</v>
@@ -18640,10 +19213,13 @@
       <c r="U4" t="n">
         <v>8.0</v>
       </c>
+      <c r="V4" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>173</v>
@@ -18705,10 +19281,13 @@
       <c r="U5" t="n">
         <v>2.0</v>
       </c>
+      <c r="V5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>174</v>
@@ -18770,10 +19349,13 @@
       <c r="U6" t="n">
         <v>9.0</v>
       </c>
+      <c r="V6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
@@ -18835,10 +19417,13 @@
       <c r="U7" t="n">
         <v>1.0</v>
       </c>
+      <c r="V7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>176</v>
@@ -18898,12 +19483,15 @@
         <v>5.0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>177</v>
@@ -18963,12 +19551,15 @@
         <v>6.0</v>
       </c>
       <c r="U9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
@@ -19030,10 +19621,13 @@
       <c r="U10" t="n">
         <v>4.0</v>
       </c>
+      <c r="V10" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>179</v>
@@ -19093,6 +19687,9 @@
         <v>10.0</v>
       </c>
       <c r="U11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V11" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -19162,10 +19759,13 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>181</v>
@@ -19218,10 +19818,13 @@
       <c r="R2" t="n">
         <v>12.0</v>
       </c>
+      <c r="S2" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>182</v>
@@ -19274,10 +19877,13 @@
       <c r="R3" t="n">
         <v>5.0</v>
       </c>
+      <c r="S3" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
@@ -19330,10 +19936,13 @@
       <c r="R4" t="n">
         <v>6.0</v>
       </c>
+      <c r="S4" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
@@ -19384,12 +19993,15 @@
         <v>12.0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>185</v>
@@ -19442,10 +20054,13 @@
       <c r="R6" t="n">
         <v>9.0</v>
       </c>
+      <c r="S6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>186</v>
@@ -19496,12 +20111,15 @@
         <v>14.0</v>
       </c>
       <c r="R7" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -19554,10 +20172,13 @@
       <c r="R8" t="n">
         <v>2.0</v>
       </c>
+      <c r="S8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>188</v>
@@ -19610,10 +20231,13 @@
       <c r="R9" t="n">
         <v>4.0</v>
       </c>
+      <c r="S9" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
@@ -19666,10 +20290,13 @@
       <c r="R10" t="n">
         <v>3.0</v>
       </c>
+      <c r="S10" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
@@ -19722,10 +20349,13 @@
       <c r="R11" t="n">
         <v>10.0</v>
       </c>
+      <c r="S11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>191</v>
@@ -19778,10 +20408,13 @@
       <c r="R12" t="n">
         <v>11.0</v>
       </c>
+      <c r="S12" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>192</v>
@@ -19834,10 +20467,13 @@
       <c r="R13" t="n">
         <v>7.0</v>
       </c>
+      <c r="S13" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>193</v>
@@ -19890,10 +20526,13 @@
       <c r="R14" t="n">
         <v>8.0</v>
       </c>
+      <c r="S14" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>194</v>
@@ -19946,10 +20585,13 @@
       <c r="R15" t="n">
         <v>16.0</v>
       </c>
+      <c r="S15" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>195</v>
@@ -20002,10 +20644,13 @@
       <c r="R16" t="n">
         <v>17.0</v>
       </c>
+      <c r="S16" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>196</v>
@@ -20058,10 +20703,13 @@
       <c r="R17" t="n">
         <v>15.0</v>
       </c>
+      <c r="S17" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>197</v>
@@ -20114,10 +20762,13 @@
       <c r="R18" t="n">
         <v>18.0</v>
       </c>
+      <c r="S18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
@@ -20168,6 +20819,9 @@
         <v>3.0</v>
       </c>
       <c r="R19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -20238,13 +20892,13 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>77</v>
@@ -20306,7 +20960,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>205</v>
@@ -20428,7 +21082,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
@@ -20550,7 +21204,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>207</v>
@@ -20672,7 +21326,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
@@ -20794,7 +21448,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>209</v>
@@ -20916,7 +21570,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>210</v>
@@ -21038,7 +21692,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>211</v>
@@ -21160,7 +21814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -21282,7 +21936,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>213</v>
@@ -21404,7 +22058,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
@@ -21526,7 +22180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>215</v>
@@ -21648,7 +22302,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>216</v>
@@ -21770,7 +22424,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>217</v>
@@ -21892,7 +22546,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>218</v>
@@ -22014,7 +22668,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>219</v>
@@ -22136,7 +22790,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -22258,7 +22912,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>221</v>
@@ -22380,7 +23034,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>222</v>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="354">
   <si>
     <t>arg_teams</t>
   </si>
@@ -3088,6 +3088,9 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3142,7 +3145,10 @@
         <v>17.0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="3">
@@ -3200,6 +3206,9 @@
       <c r="R3" t="n">
         <v>3.0</v>
       </c>
+      <c r="S3" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3254,7 +3263,10 @@
         <v>10.0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -3310,7 +3322,10 @@
         <v>12.0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
@@ -3368,6 +3383,9 @@
       <c r="R6" t="n">
         <v>27.0</v>
       </c>
+      <c r="S6" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3422,7 +3440,10 @@
         <v>18.0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -3480,6 +3501,9 @@
       <c r="R8" t="n">
         <v>22.0</v>
       </c>
+      <c r="S8" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3536,6 +3560,9 @@
       <c r="R9" t="n">
         <v>28.0</v>
       </c>
+      <c r="S9" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3590,7 +3617,10 @@
         <v>13.0</v>
       </c>
       <c r="R10" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -3646,7 +3676,10 @@
         <v>7.0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -3702,7 +3735,10 @@
         <v>19.0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
@@ -3758,7 +3794,10 @@
         <v>20.0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
@@ -3816,6 +3855,9 @@
       <c r="R14" t="n">
         <v>1.0</v>
       </c>
+      <c r="S14" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3870,7 +3912,10 @@
         <v>9.0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
@@ -3926,7 +3971,10 @@
         <v>21.0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
@@ -3982,7 +4030,10 @@
         <v>11.0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -4038,7 +4089,10 @@
         <v>14.0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="19">
@@ -4096,6 +4150,9 @@
       <c r="R19" t="n">
         <v>4.0</v>
       </c>
+      <c r="S19" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4150,7 +4207,10 @@
         <v>5.0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -4206,7 +4266,10 @@
         <v>8.0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="22">
@@ -4262,7 +4325,10 @@
         <v>6.0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -4318,7 +4384,10 @@
         <v>23.0</v>
       </c>
       <c r="R23" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
@@ -4376,6 +4445,9 @@
       <c r="R24" t="n">
         <v>2.0</v>
       </c>
+      <c r="S24" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4430,7 +4502,10 @@
         <v>24.0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
@@ -4486,7 +4561,10 @@
         <v>15.0</v>
       </c>
       <c r="R26" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="27">
@@ -4542,7 +4620,10 @@
         <v>28.0</v>
       </c>
       <c r="R27" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -4598,7 +4679,10 @@
         <v>25.0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
@@ -4654,7 +4738,10 @@
         <v>16.0</v>
       </c>
       <c r="R29" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -4708,6 +4795,9 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -4747,7 +4837,10 @@
         <v>7.0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -4788,7 +4881,10 @@
         <v>5.0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -4831,6 +4927,9 @@
       <c r="M4" t="n">
         <v>9.0</v>
       </c>
+      <c r="N4" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4870,7 +4969,10 @@
         <v>14.0</v>
       </c>
       <c r="M5" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -4913,6 +5015,9 @@
       <c r="M6" t="n">
         <v>15.0</v>
       </c>
+      <c r="N6" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4954,6 +5059,9 @@
       <c r="M7" t="n">
         <v>16.0</v>
       </c>
+      <c r="N7" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4995,6 +5103,9 @@
       <c r="M8" t="n">
         <v>1.0</v>
       </c>
+      <c r="N8" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -5036,6 +5147,9 @@
       <c r="M9" t="n">
         <v>2.0</v>
       </c>
+      <c r="N9" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -5075,6 +5189,9 @@
         <v>10.0</v>
       </c>
       <c r="M10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -5116,7 +5233,10 @@
         <v>8.0</v>
       </c>
       <c r="M11" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -5157,6 +5277,9 @@
         <v>13.0</v>
       </c>
       <c r="M12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -5198,7 +5321,10 @@
         <v>6.0</v>
       </c>
       <c r="M13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -5239,6 +5365,9 @@
         <v>4.0</v>
       </c>
       <c r="M14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N14" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -5280,6 +5409,9 @@
         <v>11.0</v>
       </c>
       <c r="M15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -5321,7 +5453,10 @@
         <v>12.0</v>
       </c>
       <c r="M16" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
@@ -5362,6 +5497,9 @@
         <v>3.0</v>
       </c>
       <c r="M17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -11491,6 +11629,9 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -11532,6 +11673,9 @@
       <c r="M2" t="n">
         <v>1.0</v>
       </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -11573,6 +11717,9 @@
       <c r="M3" t="n">
         <v>14.0</v>
       </c>
+      <c r="N3" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -11612,7 +11759,10 @@
         <v>4.0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -11653,6 +11803,9 @@
         <v>7.0</v>
       </c>
       <c r="M5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -11694,7 +11847,10 @@
         <v>9.0</v>
       </c>
       <c r="M6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -11737,6 +11893,9 @@
       <c r="M7" t="n">
         <v>2.0</v>
       </c>
+      <c r="N7" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -11776,7 +11935,10 @@
         <v>3.0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -11819,6 +11981,9 @@
       <c r="M9" t="n">
         <v>16.0</v>
       </c>
+      <c r="N9" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -11858,6 +12023,9 @@
         <v>6.0</v>
       </c>
       <c r="M10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -11899,6 +12067,9 @@
         <v>5.0</v>
       </c>
       <c r="M11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -11942,6 +12113,9 @@
       <c r="M12" t="n">
         <v>8.0</v>
       </c>
+      <c r="N12" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -11981,6 +12155,9 @@
         <v>10.0</v>
       </c>
       <c r="M13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N13" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -12024,6 +12201,9 @@
       <c r="M14" t="n">
         <v>11.0</v>
       </c>
+      <c r="N14" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -12065,6 +12245,9 @@
       <c r="M15" t="n">
         <v>15.0</v>
       </c>
+      <c r="N15" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -12106,6 +12289,9 @@
       <c r="M16" t="n">
         <v>13.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -12145,6 +12331,9 @@
         <v>13.0</v>
       </c>
       <c r="M17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -14885,6 +15074,18 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -14923,6 +15124,18 @@
       <c r="L2" t="n">
         <v>8.0</v>
       </c>
+      <c r="M2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -14961,6 +15174,18 @@
       <c r="L3" t="n">
         <v>3.0</v>
       </c>
+      <c r="M3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -14999,6 +15224,18 @@
       <c r="L4" t="n">
         <v>4.0</v>
       </c>
+      <c r="M4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -15037,6 +15274,18 @@
       <c r="L5" t="n">
         <v>18.0</v>
       </c>
+      <c r="M5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -15075,6 +15324,18 @@
       <c r="L6" t="n">
         <v>16.0</v>
       </c>
+      <c r="M6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -15113,6 +15374,18 @@
       <c r="L7" t="n">
         <v>14.0</v>
       </c>
+      <c r="M7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -15151,6 +15424,18 @@
       <c r="L8" t="n">
         <v>10.0</v>
       </c>
+      <c r="M8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -15189,6 +15474,18 @@
       <c r="L9" t="n">
         <v>11.0</v>
       </c>
+      <c r="M9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -15227,6 +15524,18 @@
       <c r="L10" t="n">
         <v>2.0</v>
       </c>
+      <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -15265,6 +15574,18 @@
       <c r="L11" t="n">
         <v>5.0</v>
       </c>
+      <c r="M11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -15303,6 +15624,18 @@
       <c r="L12" t="n">
         <v>17.0</v>
       </c>
+      <c r="M12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -15341,6 +15674,18 @@
       <c r="L13" t="n">
         <v>15.0</v>
       </c>
+      <c r="M13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -15379,6 +15724,18 @@
       <c r="L14" t="n">
         <v>9.0</v>
       </c>
+      <c r="M14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -15417,6 +15774,18 @@
       <c r="L15" t="n">
         <v>20.0</v>
       </c>
+      <c r="M15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -15455,6 +15824,18 @@
       <c r="L16" t="n">
         <v>12.0</v>
       </c>
+      <c r="M16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -15493,6 +15874,18 @@
       <c r="L17" t="n">
         <v>6.0</v>
       </c>
+      <c r="M17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -15531,6 +15924,18 @@
       <c r="L18" t="n">
         <v>19.0</v>
       </c>
+      <c r="M18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -15569,6 +15974,18 @@
       <c r="L19" t="n">
         <v>1.0</v>
       </c>
+      <c r="M19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -15607,6 +16024,18 @@
       <c r="L20" t="n">
         <v>13.0</v>
       </c>
+      <c r="M20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -15644,6 +16073,18 @@
       </c>
       <c r="L21" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -19012,6 +19453,9 @@
       <c r="V1" t="s">
         <v>77</v>
       </c>
+      <c r="W1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -19080,6 +19524,9 @@
       <c r="V2" t="n">
         <v>6.0</v>
       </c>
+      <c r="W2" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -19148,6 +19595,9 @@
       <c r="V3" t="n">
         <v>3.0</v>
       </c>
+      <c r="W3" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -19216,6 +19666,9 @@
       <c r="V4" t="n">
         <v>8.0</v>
       </c>
+      <c r="W4" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -19284,6 +19737,9 @@
       <c r="V5" t="n">
         <v>2.0</v>
       </c>
+      <c r="W5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -19352,6 +19808,9 @@
       <c r="V6" t="n">
         <v>9.0</v>
       </c>
+      <c r="W6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -19420,6 +19879,9 @@
       <c r="V7" t="n">
         <v>1.0</v>
       </c>
+      <c r="W7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -19488,6 +19950,9 @@
       <c r="V8" t="n">
         <v>7.0</v>
       </c>
+      <c r="W8" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -19556,6 +20021,9 @@
       <c r="V9" t="n">
         <v>5.0</v>
       </c>
+      <c r="W9" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -19624,6 +20092,9 @@
       <c r="V10" t="n">
         <v>4.0</v>
       </c>
+      <c r="W10" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -19690,6 +20161,9 @@
         <v>10.0</v>
       </c>
       <c r="V11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W11" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -19762,6 +20236,9 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -19821,6 +20298,9 @@
       <c r="S2" t="n">
         <v>12.0</v>
       </c>
+      <c r="T2" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -19880,6 +20360,9 @@
       <c r="S3" t="n">
         <v>6.0</v>
       </c>
+      <c r="T3" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -19939,6 +20422,9 @@
       <c r="S4" t="n">
         <v>7.0</v>
       </c>
+      <c r="T4" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -19998,6 +20484,9 @@
       <c r="S5" t="n">
         <v>15.0</v>
       </c>
+      <c r="T5" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -20057,6 +20546,9 @@
       <c r="S6" t="n">
         <v>9.0</v>
       </c>
+      <c r="T6" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -20116,6 +20608,9 @@
       <c r="S7" t="n">
         <v>13.0</v>
       </c>
+      <c r="T7" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -20175,6 +20670,9 @@
       <c r="S8" t="n">
         <v>2.0</v>
       </c>
+      <c r="T8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -20234,6 +20732,9 @@
       <c r="S9" t="n">
         <v>4.0</v>
       </c>
+      <c r="T9" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -20293,6 +20794,9 @@
       <c r="S10" t="n">
         <v>3.0</v>
       </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -20352,6 +20856,9 @@
       <c r="S11" t="n">
         <v>10.0</v>
       </c>
+      <c r="T11" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -20411,6 +20918,9 @@
       <c r="S12" t="n">
         <v>11.0</v>
       </c>
+      <c r="T12" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -20470,6 +20980,9 @@
       <c r="S13" t="n">
         <v>8.0</v>
       </c>
+      <c r="T13" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -20529,6 +21042,9 @@
       <c r="S14" t="n">
         <v>5.0</v>
       </c>
+      <c r="T14" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -20588,6 +21104,9 @@
       <c r="S15" t="n">
         <v>16.0</v>
       </c>
+      <c r="T15" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -20647,6 +21166,9 @@
       <c r="S16" t="n">
         <v>17.0</v>
       </c>
+      <c r="T16" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -20706,6 +21228,9 @@
       <c r="S17" t="n">
         <v>14.0</v>
       </c>
+      <c r="T17" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -20765,6 +21290,9 @@
       <c r="S18" t="n">
         <v>18.0</v>
       </c>
+      <c r="T18" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -20822,6 +21350,9 @@
         <v>1.0</v>
       </c>
       <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="354">
   <si>
     <t>arg_teams</t>
   </si>
@@ -101,6 +101,15 @@
     <t>X23</t>
   </si>
   <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -270,15 +279,6 @@
   </si>
   <si>
     <t>aut_teams</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
   </si>
   <si>
     <t>X27</t>
@@ -1213,13 +1213,22 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -1288,15 +1297,24 @@
         <v>20.0</v>
       </c>
       <c r="Y2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1365,15 +1383,24 @@
         <v>2.0</v>
       </c>
       <c r="Y3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -1442,15 +1469,24 @@
         <v>15.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -1519,15 +1555,24 @@
         <v>17.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -1596,15 +1641,24 @@
         <v>11.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -1673,15 +1727,24 @@
         <v>16.0</v>
       </c>
       <c r="Y7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -1750,15 +1813,24 @@
         <v>3.0</v>
       </c>
       <c r="Y8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1827,15 +1899,24 @@
         <v>23.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -1904,15 +1985,24 @@
         <v>18.0</v>
       </c>
       <c r="Y10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -1983,13 +2073,22 @@
       <c r="Y11" t="n">
         <v>10.0</v>
       </c>
+      <c r="Z11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -2059,14 +2158,23 @@
       </c>
       <c r="Y12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -2137,13 +2245,22 @@
       <c r="Y13" t="n">
         <v>4.0</v>
       </c>
+      <c r="Z13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
         <v>15.0</v>
@@ -2214,13 +2331,22 @@
       <c r="Y14" t="n">
         <v>11.0</v>
       </c>
+      <c r="Z14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -2291,13 +2417,22 @@
       <c r="Y15" t="n">
         <v>8.0</v>
       </c>
+      <c r="Z15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
         <v>24.0</v>
@@ -2366,15 +2501,24 @@
         <v>21.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" t="n">
         <v>25.0</v>
@@ -2445,13 +2589,22 @@
       <c r="Y17" t="n">
         <v>27.0</v>
       </c>
+      <c r="Z17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -2522,13 +2675,22 @@
       <c r="Y18" t="n">
         <v>5.0</v>
       </c>
+      <c r="Z18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
         <v>26.0</v>
@@ -2597,15 +2759,24 @@
         <v>26.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -2674,15 +2845,24 @@
         <v>22.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" t="n">
         <v>16.0</v>
@@ -2753,13 +2933,22 @@
       <c r="Y21" t="n">
         <v>1.0</v>
       </c>
+      <c r="Z21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
         <v>27.0</v>
@@ -2830,13 +3019,22 @@
       <c r="Y22" t="n">
         <v>6.0</v>
       </c>
+      <c r="Z22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -2905,15 +3103,24 @@
         <v>25.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -2982,15 +3189,24 @@
         <v>19.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -3061,13 +3277,22 @@
       <c r="Y25" t="n">
         <v>12.0</v>
       </c>
+      <c r="Z25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -3138,13 +3363,22 @@
       <c r="Y26" t="n">
         <v>28.0</v>
       </c>
+      <c r="Z26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -3215,13 +3449,22 @@
       <c r="Y27" t="n">
         <v>9.0</v>
       </c>
+      <c r="Z27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C28" t="n">
         <v>8.0</v>
@@ -3290,15 +3533,24 @@
         <v>13.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" t="n">
         <v>9.0</v>
@@ -3367,7 +3619,16 @@
         <v>24.0</v>
       </c>
       <c r="Y29" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Z29" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -3451,10 +3712,16 @@
       <c r="W1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
@@ -3522,10 +3789,16 @@
       <c r="W2" t="n">
         <v>22.0</v>
       </c>
+      <c r="X2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>225</v>
@@ -3591,12 +3864,18 @@
         <v>1.0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>226</v>
@@ -3662,12 +3941,18 @@
         <v>6.0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>227</v>
@@ -3735,10 +4020,16 @@
       <c r="W5" t="n">
         <v>16.0</v>
       </c>
+      <c r="X5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>228</v>
@@ -3806,10 +4097,16 @@
       <c r="W6" t="n">
         <v>24.0</v>
       </c>
+      <c r="X6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>229</v>
@@ -3877,10 +4174,16 @@
       <c r="W7" t="n">
         <v>23.0</v>
       </c>
+      <c r="X7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>230</v>
@@ -3946,12 +4249,18 @@
         <v>15.0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>231</v>
@@ -4019,10 +4328,16 @@
       <c r="W9" t="n">
         <v>28.0</v>
       </c>
+      <c r="X9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>232</v>
@@ -4090,10 +4405,16 @@
       <c r="W10" t="n">
         <v>13.0</v>
       </c>
+      <c r="X10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>233</v>
@@ -4161,10 +4482,16 @@
       <c r="W11" t="n">
         <v>12.0</v>
       </c>
+      <c r="X11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>234</v>
@@ -4230,12 +4557,18 @@
         <v>24.0</v>
       </c>
       <c r="W12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>235</v>
@@ -4301,12 +4634,18 @@
         <v>18.0</v>
       </c>
       <c r="W13" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>236</v>
@@ -4374,10 +4713,16 @@
       <c r="W14" t="n">
         <v>1.0</v>
       </c>
+      <c r="X14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
@@ -4445,10 +4790,16 @@
       <c r="W15" t="n">
         <v>14.0</v>
       </c>
+      <c r="X15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>238</v>
@@ -4516,10 +4867,16 @@
       <c r="W16" t="n">
         <v>8.0</v>
       </c>
+      <c r="X16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>239</v>
@@ -4587,10 +4944,16 @@
       <c r="W17" t="n">
         <v>9.0</v>
       </c>
+      <c r="X17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>240</v>
@@ -4656,12 +5019,18 @@
         <v>19.0</v>
       </c>
       <c r="W18" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>241</v>
@@ -4729,10 +5098,16 @@
       <c r="W19" t="n">
         <v>4.0</v>
       </c>
+      <c r="X19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>242</v>
@@ -4798,12 +5173,18 @@
         <v>5.0</v>
       </c>
       <c r="W20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
@@ -4869,12 +5250,18 @@
         <v>10.0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>244</v>
@@ -4940,12 +5327,18 @@
         <v>3.0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>245</v>
@@ -5013,10 +5406,16 @@
       <c r="W23" t="n">
         <v>15.0</v>
       </c>
+      <c r="X23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>246</v>
@@ -5082,12 +5481,18 @@
         <v>9.0</v>
       </c>
       <c r="W24" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>247</v>
@@ -5155,10 +5560,16 @@
       <c r="W25" t="n">
         <v>25.0</v>
       </c>
+      <c r="X25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>248</v>
@@ -5224,12 +5635,18 @@
         <v>17.0</v>
       </c>
       <c r="W26" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>249</v>
@@ -5295,12 +5712,18 @@
         <v>26.0</v>
       </c>
       <c r="W27" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>250</v>
@@ -5366,12 +5789,18 @@
         <v>27.0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>251</v>
@@ -5437,7 +5866,13 @@
         <v>20.0</v>
       </c>
       <c r="W29" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -5503,10 +5938,13 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>253</v>
@@ -5554,12 +5992,15 @@
         <v>7.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>254</v>
@@ -5607,12 +6048,15 @@
         <v>4.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5660,12 +6104,15 @@
         <v>10.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>256</v>
@@ -5715,10 +6162,13 @@
       <c r="Q5" t="n">
         <v>13.0</v>
       </c>
+      <c r="R5" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>257</v>
@@ -5768,10 +6218,13 @@
       <c r="Q6" t="n">
         <v>15.0</v>
       </c>
+      <c r="R6" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>258</v>
@@ -5821,10 +6274,13 @@
       <c r="Q7" t="n">
         <v>16.0</v>
       </c>
+      <c r="R7" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>259</v>
@@ -5872,12 +6328,15 @@
         <v>1.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>260</v>
@@ -5925,12 +6384,15 @@
         <v>2.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>261</v>
@@ -5980,10 +6442,13 @@
       <c r="Q10" t="n">
         <v>8.0</v>
       </c>
+      <c r="R10" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>262</v>
@@ -6033,10 +6498,13 @@
       <c r="Q11" t="n">
         <v>5.0</v>
       </c>
+      <c r="R11" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
@@ -6084,12 +6552,15 @@
         <v>11.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>264</v>
@@ -6137,12 +6608,15 @@
         <v>9.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>265</v>
@@ -6190,12 +6664,15 @@
         <v>6.0</v>
       </c>
       <c r="Q14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R14" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>266</v>
@@ -6245,10 +6722,13 @@
       <c r="Q15" t="n">
         <v>14.0</v>
       </c>
+      <c r="R15" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>267</v>
@@ -6296,12 +6776,15 @@
         <v>12.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>268</v>
@@ -6349,7 +6832,10 @@
         <v>3.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -6440,13 +6926,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -6475,7 +6961,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>270</v>
@@ -6585,7 +7071,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>271</v>
@@ -6695,7 +7181,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>272</v>
@@ -6805,7 +7291,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>273</v>
@@ -6915,7 +7401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>274</v>
@@ -7025,7 +7511,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>275</v>
@@ -7135,7 +7621,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
@@ -7245,7 +7731,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>277</v>
@@ -7355,7 +7841,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>278</v>
@@ -7465,7 +7951,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>279</v>
@@ -7575,7 +8061,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>280</v>
@@ -7685,7 +8171,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>281</v>
@@ -7795,7 +8281,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>282</v>
@@ -7905,7 +8391,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>283</v>
@@ -8015,7 +8501,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>284</v>
@@ -8125,7 +8611,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>285</v>
@@ -8235,7 +8721,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>286</v>
@@ -8345,7 +8831,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>287</v>
@@ -8541,13 +9027,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -8582,7 +9068,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>289</v>
@@ -8698,7 +9184,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>290</v>
@@ -8814,7 +9300,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>291</v>
@@ -8930,7 +9416,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>292</v>
@@ -9046,7 +9532,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>293</v>
@@ -9162,7 +9648,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>294</v>
@@ -9278,7 +9764,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>295</v>
@@ -9394,7 +9880,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>296</v>
@@ -9510,7 +9996,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>297</v>
@@ -9626,7 +10112,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>298</v>
@@ -9742,7 +10228,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>299</v>
@@ -9858,7 +10344,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>300</v>
@@ -9974,7 +10460,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>301</v>
@@ -10090,7 +10576,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>302</v>
@@ -10206,7 +10692,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>303</v>
@@ -10322,7 +10808,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>304</v>
@@ -10438,7 +10924,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>305</v>
@@ -10554,7 +11040,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
@@ -10756,13 +11242,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -10773,7 +11259,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>308</v>
@@ -10865,7 +11351,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>309</v>
@@ -10957,7 +11443,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>310</v>
@@ -11049,7 +11535,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>311</v>
@@ -11141,7 +11627,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>312</v>
@@ -11233,7 +11719,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>313</v>
@@ -11325,7 +11811,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>314</v>
@@ -11417,7 +11903,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>315</v>
@@ -11509,7 +11995,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>316</v>
@@ -11601,7 +12087,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>317</v>
@@ -11693,7 +12179,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>318</v>
@@ -11785,7 +12271,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>319</v>
@@ -11877,7 +12363,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>320</v>
@@ -11969,7 +12455,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>321</v>
@@ -12061,7 +12547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>322</v>
@@ -12153,7 +12639,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>323</v>
@@ -12245,7 +12731,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>324</v>
@@ -12337,7 +12823,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>325</v>
@@ -12490,10 +12976,13 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>327</v>
@@ -12541,12 +13030,15 @@
         <v>2.0</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>328</v>
@@ -12594,12 +13086,15 @@
         <v>15.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>329</v>
@@ -12647,12 +13142,15 @@
         <v>1.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>330</v>
@@ -12700,12 +13198,15 @@
         <v>9.0</v>
       </c>
       <c r="Q5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>331</v>
@@ -12753,12 +13254,15 @@
         <v>6.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>332</v>
@@ -12806,12 +13310,15 @@
         <v>3.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>333</v>
@@ -12859,12 +13366,15 @@
         <v>4.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R8" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>334</v>
@@ -12912,12 +13422,15 @@
         <v>16.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>335</v>
@@ -12965,12 +13478,15 @@
         <v>7.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>336</v>
@@ -13018,12 +13534,15 @@
         <v>5.0</v>
       </c>
       <c r="Q11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>337</v>
@@ -13071,12 +13590,15 @@
         <v>10.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>338</v>
@@ -13126,10 +13648,13 @@
       <c r="Q13" t="n">
         <v>11.0</v>
       </c>
+      <c r="R13" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>339</v>
@@ -13177,12 +13702,15 @@
         <v>8.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>340</v>
@@ -13230,12 +13758,15 @@
         <v>14.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>341</v>
@@ -13285,10 +13816,13 @@
       <c r="Q16" t="n">
         <v>12.0</v>
       </c>
+      <c r="R16" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>342</v>
@@ -13336,6 +13870,9 @@
         <v>13.0</v>
       </c>
       <c r="Q17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R17" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -13427,13 +13964,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -13468,7 +14005,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>344</v>
@@ -13584,7 +14121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>345</v>
@@ -13700,7 +14237,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>346</v>
@@ -13816,7 +14353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>347</v>
@@ -13932,7 +14469,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>348</v>
@@ -14048,7 +14585,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>349</v>
@@ -14164,7 +14701,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>350</v>
@@ -14280,7 +14817,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>351</v>
@@ -14396,7 +14933,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>352</v>
@@ -14512,7 +15049,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>353</v>
@@ -14642,7 +15179,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14714,13 +15251,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -14746,7 +15283,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -14853,7 +15390,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
@@ -14960,7 +15497,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
@@ -15067,7 +15604,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -15174,7 +15711,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
@@ -15281,7 +15818,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -15388,7 +15925,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
@@ -15495,7 +16032,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
@@ -15602,7 +16139,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -15709,7 +16246,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -15816,7 +16353,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -15923,7 +16460,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -16097,10 +16634,19 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -16156,10 +16702,19 @@
       <c r="S2" t="n">
         <v>17.0</v>
       </c>
+      <c r="T2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
@@ -16215,10 +16770,19 @@
       <c r="S3" t="n">
         <v>5.0</v>
       </c>
+      <c r="T3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
@@ -16274,10 +16838,19 @@
       <c r="S4" t="n">
         <v>2.0</v>
       </c>
+      <c r="T4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
@@ -16333,10 +16906,19 @@
       <c r="S5" t="n">
         <v>18.0</v>
       </c>
+      <c r="T5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
@@ -16392,10 +16974,19 @@
       <c r="S6" t="n">
         <v>11.0</v>
       </c>
+      <c r="T6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
@@ -16451,10 +17042,19 @@
       <c r="S7" t="n">
         <v>12.0</v>
       </c>
+      <c r="T7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -16510,10 +17110,19 @@
       <c r="S8" t="n">
         <v>7.0</v>
       </c>
+      <c r="T8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>111</v>
@@ -16569,10 +17178,19 @@
       <c r="S9" t="n">
         <v>13.0</v>
       </c>
+      <c r="T9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
@@ -16628,10 +17246,19 @@
       <c r="S10" t="n">
         <v>3.0</v>
       </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>113</v>
@@ -16687,10 +17314,19 @@
       <c r="S11" t="n">
         <v>15.0</v>
       </c>
+      <c r="T11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -16746,10 +17382,19 @@
       <c r="S12" t="n">
         <v>16.0</v>
       </c>
+      <c r="T12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -16805,10 +17450,19 @@
       <c r="S13" t="n">
         <v>8.0</v>
       </c>
+      <c r="T13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -16864,10 +17518,19 @@
       <c r="S14" t="n">
         <v>6.0</v>
       </c>
+      <c r="T14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>117</v>
@@ -16923,10 +17586,19 @@
       <c r="S15" t="n">
         <v>19.0</v>
       </c>
+      <c r="T15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
@@ -16982,10 +17654,19 @@
       <c r="S16" t="n">
         <v>14.0</v>
       </c>
+      <c r="T16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -17041,10 +17722,19 @@
       <c r="S17" t="n">
         <v>4.0</v>
       </c>
+      <c r="T17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -17100,10 +17790,19 @@
       <c r="S18" t="n">
         <v>20.0</v>
       </c>
+      <c r="T18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -17159,10 +17858,19 @@
       <c r="S19" t="n">
         <v>1.0</v>
       </c>
+      <c r="T19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -17218,10 +17926,19 @@
       <c r="S20" t="n">
         <v>10.0</v>
       </c>
+      <c r="T20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -17276,6 +17993,15 @@
       </c>
       <c r="S21" t="n">
         <v>9.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -17329,7 +18055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -17367,7 +18093,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -17405,7 +18131,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
@@ -17443,7 +18169,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
@@ -17481,7 +18207,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -17519,7 +18245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
@@ -17557,7 +18283,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
@@ -17595,7 +18321,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
@@ -17633,7 +18359,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
@@ -17671,7 +18397,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>134</v>
@@ -17709,7 +18435,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
@@ -17747,7 +18473,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
@@ -17785,7 +18511,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
@@ -17823,7 +18549,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
@@ -17861,7 +18587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
@@ -17899,7 +18625,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
@@ -17937,7 +18663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>141</v>
@@ -17975,7 +18701,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>142</v>
@@ -18099,13 +18825,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -18131,7 +18857,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>144</v>
@@ -18238,7 +18964,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>145</v>
@@ -18345,7 +19071,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
@@ -18452,7 +19178,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
@@ -18559,7 +19285,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>148</v>
@@ -18666,7 +19392,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>149</v>
@@ -18773,7 +19499,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>150</v>
@@ -18880,7 +19606,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>151</v>
@@ -18987,7 +19713,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>152</v>
@@ -19094,7 +19820,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>153</v>
@@ -19201,7 +19927,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
@@ -19308,7 +20034,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>155</v>
@@ -19476,10 +20202,16 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -19529,10 +20261,16 @@
       <c r="Q2" t="n">
         <v>4.0</v>
       </c>
+      <c r="R2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>158</v>
@@ -19582,10 +20320,16 @@
       <c r="Q3" t="n">
         <v>5.0</v>
       </c>
+      <c r="R3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>159</v>
@@ -19635,10 +20379,16 @@
       <c r="Q4" t="n">
         <v>12.0</v>
       </c>
+      <c r="R4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>160</v>
@@ -19688,10 +20438,16 @@
       <c r="Q5" t="n">
         <v>2.0</v>
       </c>
+      <c r="R5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>161</v>
@@ -19741,10 +20497,16 @@
       <c r="Q6" t="n">
         <v>3.0</v>
       </c>
+      <c r="R6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
@@ -19794,10 +20556,16 @@
       <c r="Q7" t="n">
         <v>6.0</v>
       </c>
+      <c r="R7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>163</v>
@@ -19845,12 +20613,18 @@
         <v>7.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>164</v>
@@ -19900,10 +20674,16 @@
       <c r="Q9" t="n">
         <v>1.0</v>
       </c>
+      <c r="R9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>165</v>
@@ -19953,10 +20733,16 @@
       <c r="Q10" t="n">
         <v>11.0</v>
       </c>
+      <c r="R10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>166</v>
@@ -20006,10 +20792,16 @@
       <c r="Q11" t="n">
         <v>10.0</v>
       </c>
+      <c r="R11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>167</v>
@@ -20057,12 +20849,18 @@
         <v>8.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>168</v>
@@ -20110,6 +20908,12 @@
         <v>9.0</v>
       </c>
       <c r="Q13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -20200,10 +21004,13 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
@@ -20277,10 +21084,13 @@
       <c r="Y2" t="n">
         <v>5.0</v>
       </c>
+      <c r="Z2" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>171</v>
@@ -20354,10 +21164,13 @@
       <c r="Y3" t="n">
         <v>2.0</v>
       </c>
+      <c r="Z3" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>172</v>
@@ -20431,10 +21244,13 @@
       <c r="Y4" t="n">
         <v>8.0</v>
       </c>
+      <c r="Z4" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>173</v>
@@ -20508,10 +21324,13 @@
       <c r="Y5" t="n">
         <v>3.0</v>
       </c>
+      <c r="Z5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>174</v>
@@ -20585,10 +21404,13 @@
       <c r="Y6" t="n">
         <v>9.0</v>
       </c>
+      <c r="Z6" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
@@ -20662,10 +21484,13 @@
       <c r="Y7" t="n">
         <v>1.0</v>
       </c>
+      <c r="Z7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>176</v>
@@ -20739,10 +21564,13 @@
       <c r="Y8" t="n">
         <v>7.0</v>
       </c>
+      <c r="Z8" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>177</v>
@@ -20816,10 +21644,13 @@
       <c r="Y9" t="n">
         <v>6.0</v>
       </c>
+      <c r="Z9" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
@@ -20893,10 +21724,13 @@
       <c r="Y10" t="n">
         <v>4.0</v>
       </c>
+      <c r="Z10" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>179</v>
@@ -20969,6 +21803,9 @@
       </c>
       <c r="Y11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -21055,10 +21892,13 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>181</v>
@@ -21129,10 +21969,13 @@
       <c r="X2" t="n">
         <v>10.0</v>
       </c>
+      <c r="Y2" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>182</v>
@@ -21203,10 +22046,13 @@
       <c r="X3" t="n">
         <v>5.0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
@@ -21277,10 +22123,13 @@
       <c r="X4" t="n">
         <v>7.0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
@@ -21349,12 +22198,15 @@
         <v>15.0</v>
       </c>
       <c r="X5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>185</v>
@@ -21423,12 +22275,15 @@
         <v>12.0</v>
       </c>
       <c r="X6" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>186</v>
@@ -21497,12 +22352,15 @@
         <v>18.0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -21573,10 +22431,13 @@
       <c r="X8" t="n">
         <v>2.0</v>
       </c>
+      <c r="Y8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>188</v>
@@ -21647,10 +22508,13 @@
       <c r="X9" t="n">
         <v>4.0</v>
       </c>
+      <c r="Y9" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
@@ -21721,10 +22585,13 @@
       <c r="X10" t="n">
         <v>3.0</v>
       </c>
+      <c r="Y10" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
@@ -21793,12 +22660,15 @@
         <v>13.0</v>
       </c>
       <c r="X11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>191</v>
@@ -21867,12 +22737,15 @@
         <v>11.0</v>
       </c>
       <c r="X12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>192</v>
@@ -21943,10 +22816,13 @@
       <c r="X13" t="n">
         <v>9.0</v>
       </c>
+      <c r="Y13" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>193</v>
@@ -22017,10 +22893,13 @@
       <c r="X14" t="n">
         <v>6.0</v>
       </c>
+      <c r="Y14" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>194</v>
@@ -22089,12 +22968,15 @@
         <v>17.0</v>
       </c>
       <c r="X15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>195</v>
@@ -22163,12 +23045,15 @@
         <v>14.0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>196</v>
@@ -22239,10 +23124,13 @@
       <c r="X17" t="n">
         <v>8.0</v>
       </c>
+      <c r="Y17" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>197</v>
@@ -22311,12 +23199,15 @@
         <v>16.0</v>
       </c>
       <c r="X18" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
@@ -22385,6 +23276,9 @@
         <v>1.0</v>
       </c>
       <c r="X19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -22476,13 +23370,13 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
         <v>84</v>
@@ -22523,7 +23417,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>205</v>
@@ -22645,7 +23539,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
@@ -22767,7 +23661,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>207</v>
@@ -22889,7 +23783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
@@ -23011,7 +23905,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>209</v>
@@ -23133,7 +24027,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>210</v>
@@ -23255,7 +24149,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>211</v>
@@ -23377,7 +24271,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -23499,7 +24393,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>213</v>
@@ -23621,7 +24515,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
@@ -23743,7 +24637,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>215</v>
@@ -23865,7 +24759,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>216</v>
@@ -23987,7 +24881,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>217</v>
@@ -24109,7 +25003,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>218</v>
@@ -24231,7 +25125,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>219</v>
@@ -24353,7 +25247,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -24475,7 +25369,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>221</v>
@@ -24597,7 +25491,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>222</v>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="350">
   <si>
     <t>arg_teams</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>X37</t>
+  </si>
+  <si>
+    <t>X38</t>
+  </si>
+  <si>
+    <t>X39</t>
   </si>
   <si>
     <t>1</t>
@@ -1237,13 +1243,19 @@
       <c r="AM1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -1354,15 +1366,21 @@
         <v>27.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1474,14 +1492,20 @@
       </c>
       <c r="AM3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -1592,15 +1616,21 @@
         <v>21.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -1711,15 +1741,21 @@
         <v>11.0</v>
       </c>
       <c r="AM5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -1830,15 +1866,21 @@
         <v>15.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -1951,13 +1993,19 @@
       <c r="AM7" t="n">
         <v>14.0</v>
       </c>
+      <c r="AN7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -2068,15 +2116,21 @@
         <v>2.0</v>
       </c>
       <c r="AM8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -2189,13 +2243,19 @@
       <c r="AM9" t="n">
         <v>19.0</v>
       </c>
+      <c r="AN9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -2306,15 +2366,21 @@
         <v>23.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -2427,13 +2493,19 @@
       <c r="AM11" t="n">
         <v>10.0</v>
       </c>
+      <c r="AN11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -2544,15 +2616,21 @@
         <v>7.0</v>
       </c>
       <c r="AM12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -2665,13 +2743,19 @@
       <c r="AM13" t="n">
         <v>4.0</v>
       </c>
+      <c r="AN13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
         <v>15.0</v>
@@ -2784,13 +2868,19 @@
       <c r="AM14" t="n">
         <v>13.0</v>
       </c>
+      <c r="AN14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -2901,15 +2991,21 @@
         <v>8.0</v>
       </c>
       <c r="AM15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
         <v>24.0</v>
@@ -3022,13 +3118,19 @@
       <c r="AM16" t="n">
         <v>15.0</v>
       </c>
+      <c r="AN16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" t="n">
         <v>25.0</v>
@@ -3139,15 +3241,21 @@
         <v>28.0</v>
       </c>
       <c r="AM17" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -3258,15 +3366,21 @@
         <v>9.0</v>
       </c>
       <c r="AM18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" t="n">
         <v>26.0</v>
@@ -3377,15 +3491,21 @@
         <v>24.0</v>
       </c>
       <c r="AM19" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -3496,15 +3616,21 @@
         <v>20.0</v>
       </c>
       <c r="AM20" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="n">
         <v>16.0</v>
@@ -3617,13 +3743,19 @@
       <c r="AM21" t="n">
         <v>2.0</v>
       </c>
+      <c r="AN21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" t="n">
         <v>27.0</v>
@@ -3736,13 +3868,19 @@
       <c r="AM22" t="n">
         <v>3.0</v>
       </c>
+      <c r="AN22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -3853,15 +3991,21 @@
         <v>22.0</v>
       </c>
       <c r="AM23" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -3972,15 +4116,21 @@
         <v>16.0</v>
       </c>
       <c r="AM24" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -4093,13 +4243,19 @@
       <c r="AM25" t="n">
         <v>12.0</v>
       </c>
+      <c r="AN25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -4210,15 +4366,21 @@
         <v>25.0</v>
       </c>
       <c r="AM26" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AO26" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -4331,13 +4493,19 @@
       <c r="AM27" t="n">
         <v>6.0</v>
       </c>
+      <c r="AN27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" t="n">
         <v>8.0</v>
@@ -4450,13 +4618,19 @@
       <c r="AM28" t="n">
         <v>18.0</v>
       </c>
+      <c r="AN28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" t="n">
         <v>9.0</v>
@@ -4567,7 +4741,13 @@
         <v>26.0</v>
       </c>
       <c r="AM29" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4766,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4687,13 +4867,16 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -4794,13 +4977,16 @@
       <c r="AI2" t="n">
         <v>21.0</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -4899,15 +5085,18 @@
         <v>4.0</v>
       </c>
       <c r="AI3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C4" t="n">
         <v>20.0</v>
@@ -5008,13 +5197,16 @@
       <c r="AI4" t="n">
         <v>3.0</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -5113,15 +5305,18 @@
         <v>22.0</v>
       </c>
       <c r="AI5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -5222,13 +5417,16 @@
       <c r="AI6" t="n">
         <v>24.0</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -5327,15 +5525,18 @@
         <v>21.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -5434,15 +5635,18 @@
         <v>16.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -5543,13 +5747,16 @@
       <c r="AI9" t="n">
         <v>28.0</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C10" t="n">
         <v>23.0</v>
@@ -5648,15 +5855,18 @@
         <v>9.0</v>
       </c>
       <c r="AI10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C11" t="n">
         <v>11.0</v>
@@ -5757,13 +5967,16 @@
       <c r="AI11" t="n">
         <v>6.0</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -5864,13 +6077,16 @@
       <c r="AI12" t="n">
         <v>25.0</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -5969,15 +6185,18 @@
         <v>12.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C14" t="n">
         <v>5.0</v>
@@ -6076,15 +6295,18 @@
         <v>1.0</v>
       </c>
       <c r="AI14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -6183,15 +6405,18 @@
         <v>10.0</v>
       </c>
       <c r="AI15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
         <v>14.0</v>
@@ -6292,13 +6517,16 @@
       <c r="AI16" t="n">
         <v>14.0</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C17" t="n">
         <v>7.0</v>
@@ -6397,15 +6625,18 @@
         <v>8.0</v>
       </c>
       <c r="AI17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -6506,13 +6737,16 @@
       <c r="AI18" t="n">
         <v>20.0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -6613,13 +6847,16 @@
       <c r="AI19" t="n">
         <v>5.0</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C20" t="n">
         <v>8.0</v>
@@ -6718,15 +6955,18 @@
         <v>6.0</v>
       </c>
       <c r="AI20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C21" t="n">
         <v>9.0</v>
@@ -6827,13 +7067,16 @@
       <c r="AI21" t="n">
         <v>15.0</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6932,15 +7175,18 @@
         <v>2.0</v>
       </c>
       <c r="AI22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -7039,15 +7285,18 @@
         <v>11.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -7148,13 +7397,16 @@
       <c r="AI24" t="n">
         <v>16.0</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C25" t="n">
         <v>25.0</v>
@@ -7255,13 +7507,16 @@
       <c r="AI25" t="n">
         <v>26.0</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C26" t="n">
         <v>26.0</v>
@@ -7362,13 +7617,16 @@
       <c r="AI26" t="n">
         <v>22.0</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C27" t="n">
         <v>27.0</v>
@@ -7469,13 +7727,16 @@
       <c r="AI27" t="n">
         <v>23.0</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C28" t="n">
         <v>19.0</v>
@@ -7576,13 +7837,16 @@
       <c r="AI28" t="n">
         <v>27.0</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C29" t="n">
         <v>28.0</v>
@@ -7682,6 +7946,9 @@
       </c>
       <c r="AI29" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -7700,7 +7967,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7774,13 +8041,16 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7852,15 +8122,18 @@
         <v>12.0</v>
       </c>
       <c r="Z2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -7932,15 +8205,18 @@
         <v>4.0</v>
       </c>
       <c r="Z3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -8012,15 +8288,18 @@
         <v>13.0</v>
       </c>
       <c r="Z4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -8093,14 +8372,17 @@
       </c>
       <c r="Z5" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -8172,15 +8454,18 @@
         <v>16.0</v>
       </c>
       <c r="Z6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -8252,15 +8537,18 @@
         <v>15.0</v>
       </c>
       <c r="Z7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -8332,15 +8620,18 @@
         <v>2.0</v>
       </c>
       <c r="Z8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -8412,15 +8703,18 @@
         <v>1.0</v>
       </c>
       <c r="Z9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -8492,15 +8786,18 @@
         <v>6.0</v>
       </c>
       <c r="Z10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -8572,15 +8869,18 @@
         <v>3.0</v>
       </c>
       <c r="Z11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -8652,15 +8952,18 @@
         <v>14.0</v>
       </c>
       <c r="Z12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -8733,14 +9036,17 @@
       </c>
       <c r="Z13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -8813,14 +9119,17 @@
       </c>
       <c r="Z14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -8893,14 +9202,17 @@
       </c>
       <c r="Z15" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -8972,15 +9284,18 @@
         <v>5.0</v>
       </c>
       <c r="Z16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -9053,6 +9368,9 @@
       </c>
       <c r="Z17" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -9071,7 +9389,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9106,13 +9424,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -9145,15 +9466,18 @@
         <v>5.0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C3" t="n">
         <v>13.0</v>
@@ -9187,14 +9511,17 @@
       </c>
       <c r="M3" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -9228,14 +9555,17 @@
       </c>
       <c r="M4" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C5" t="n">
         <v>7.0</v>
@@ -9268,15 +9598,18 @@
         <v>14.0</v>
       </c>
       <c r="M5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -9311,13 +9644,16 @@
       <c r="M6" t="n">
         <v>10.0</v>
       </c>
+      <c r="N6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C7" t="n">
         <v>15.0</v>
@@ -9352,13 +9688,16 @@
       <c r="M7" t="n">
         <v>17.0</v>
       </c>
+      <c r="N7" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -9391,15 +9730,18 @@
         <v>1.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -9434,13 +9776,16 @@
       <c r="M9" t="n">
         <v>18.0</v>
       </c>
+      <c r="N9" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -9475,13 +9820,16 @@
       <c r="M10" t="n">
         <v>16.0</v>
       </c>
+      <c r="N10" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -9514,15 +9862,18 @@
         <v>4.0</v>
       </c>
       <c r="M11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
@@ -9556,14 +9907,17 @@
       </c>
       <c r="M12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -9596,15 +9950,18 @@
         <v>3.0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -9638,14 +9995,17 @@
       </c>
       <c r="M14" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -9678,15 +10038,18 @@
         <v>13.0</v>
       </c>
       <c r="M15" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C16" t="n">
         <v>17.0</v>
@@ -9721,13 +10084,16 @@
       <c r="M16" t="n">
         <v>12.0</v>
       </c>
+      <c r="N16" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C17" t="n">
         <v>18.0</v>
@@ -9760,15 +10126,18 @@
         <v>6.0</v>
       </c>
       <c r="M17" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C18" t="n">
         <v>6.0</v>
@@ -9801,15 +10170,18 @@
         <v>2.0</v>
       </c>
       <c r="M18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N18" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -9843,6 +10215,9 @@
       </c>
       <c r="M19" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -9861,7 +10236,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -9893,13 +10268,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -9930,14 +10308,17 @@
       </c>
       <c r="L2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -9968,14 +10349,17 @@
       </c>
       <c r="L3" t="n">
         <v>15.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -10005,15 +10389,18 @@
         <v>1.0</v>
       </c>
       <c r="L4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -10044,14 +10431,17 @@
       </c>
       <c r="L5" t="n">
         <v>12.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10082,14 +10472,17 @@
       </c>
       <c r="L6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -10120,14 +10513,17 @@
       </c>
       <c r="L7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -10157,15 +10553,18 @@
         <v>3.0</v>
       </c>
       <c r="L8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -10196,14 +10595,17 @@
       </c>
       <c r="L9" t="n">
         <v>10.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -10234,14 +10636,17 @@
       </c>
       <c r="L10" t="n">
         <v>13.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -10272,14 +10677,17 @@
       </c>
       <c r="L11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
         <v>13.0</v>
@@ -10310,14 +10718,17 @@
       </c>
       <c r="L12" t="n">
         <v>7.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C13" t="n">
         <v>7.0</v>
@@ -10347,15 +10758,18 @@
         <v>7.0</v>
       </c>
       <c r="L13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C14" t="n">
         <v>14.0</v>
@@ -10386,14 +10800,17 @@
       </c>
       <c r="L14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -10423,15 +10840,18 @@
         <v>4.0</v>
       </c>
       <c r="L15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M15" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C16" t="n">
         <v>15.0</v>
@@ -10462,6 +10882,9 @@
       </c>
       <c r="L16" t="n">
         <v>11.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -10480,7 +10903,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10515,13 +10938,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -10555,14 +10981,17 @@
       </c>
       <c r="M2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -10596,14 +11025,17 @@
       </c>
       <c r="M3" t="n">
         <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -10637,14 +11069,17 @@
       </c>
       <c r="M4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
@@ -10677,15 +11112,18 @@
         <v>13.0</v>
       </c>
       <c r="M5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -10719,14 +11157,17 @@
       </c>
       <c r="M6" t="n">
         <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C7" t="n">
         <v>8.0</v>
@@ -10760,14 +11201,17 @@
       </c>
       <c r="M7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -10800,15 +11244,18 @@
         <v>4.0</v>
       </c>
       <c r="M8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -10842,14 +11289,17 @@
       </c>
       <c r="M9" t="n">
         <v>13.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -10882,15 +11332,18 @@
         <v>9.0</v>
       </c>
       <c r="M10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N10" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C11" t="n">
         <v>14.0</v>
@@ -10924,14 +11377,17 @@
       </c>
       <c r="M11" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -10964,15 +11420,18 @@
         <v>11.0</v>
       </c>
       <c r="M12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -11006,14 +11465,17 @@
       </c>
       <c r="M13" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C14" t="n">
         <v>12.0</v>
@@ -11047,14 +11509,17 @@
       </c>
       <c r="M14" t="n">
         <v>4.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -11087,15 +11552,18 @@
         <v>15.0</v>
       </c>
       <c r="M15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -11129,14 +11597,17 @@
       </c>
       <c r="M16" t="n">
         <v>15.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C17" t="n">
         <v>13.0</v>
@@ -11169,6 +11640,9 @@
         <v>1.0</v>
       </c>
       <c r="M17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -11188,7 +11662,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11262,13 +11736,16 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C2" t="n">
         <v>9.0</v>
@@ -11340,15 +11817,18 @@
         <v>4.0</v>
       </c>
       <c r="Z2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -11420,15 +11900,18 @@
         <v>14.0</v>
       </c>
       <c r="Z3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -11501,14 +11984,17 @@
       </c>
       <c r="Z4" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -11580,15 +12066,18 @@
         <v>8.0</v>
       </c>
       <c r="Z5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -11660,15 +12149,18 @@
         <v>7.0</v>
       </c>
       <c r="Z6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -11741,14 +12233,17 @@
       </c>
       <c r="Z7" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -11820,15 +12315,18 @@
         <v>3.0</v>
       </c>
       <c r="Z8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -11900,15 +12398,18 @@
         <v>15.0</v>
       </c>
       <c r="Z9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -11980,15 +12481,18 @@
         <v>6.0</v>
       </c>
       <c r="Z10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -12060,15 +12564,18 @@
         <v>5.0</v>
       </c>
       <c r="Z11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -12140,15 +12647,18 @@
         <v>9.0</v>
       </c>
       <c r="Z12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -12220,15 +12730,18 @@
         <v>11.0</v>
       </c>
       <c r="Z13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -12300,15 +12813,18 @@
         <v>12.0</v>
       </c>
       <c r="Z14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C15" t="n">
         <v>15.0</v>
@@ -12380,15 +12896,18 @@
         <v>16.0</v>
       </c>
       <c r="Z15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -12460,15 +12979,18 @@
         <v>13.0</v>
       </c>
       <c r="Z16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -12540,6 +13062,9 @@
         <v>10.0</v>
       </c>
       <c r="Z17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -12559,7 +13084,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12588,13 +13113,16 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -12622,14 +13150,17 @@
       </c>
       <c r="K2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -12657,14 +13188,17 @@
       </c>
       <c r="K3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -12692,14 +13226,17 @@
       </c>
       <c r="K4" t="n">
         <v>7.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -12726,15 +13263,18 @@
         <v>7.0</v>
       </c>
       <c r="K5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -12761,15 +13301,18 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -12796,15 +13339,18 @@
         <v>4.0</v>
       </c>
       <c r="K7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L7" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -12831,15 +13377,18 @@
         <v>3.0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -12866,15 +13415,18 @@
         <v>9.0</v>
       </c>
       <c r="K9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L9" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -12901,15 +13453,18 @@
         <v>2.0</v>
       </c>
       <c r="K10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -12936,6 +13491,9 @@
         <v>10.0</v>
       </c>
       <c r="K11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L11" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -12955,7 +13513,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12987,13 +13545,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -13023,15 +13584,18 @@
         <v>6.0</v>
       </c>
       <c r="L2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -13061,15 +13625,18 @@
         <v>12.0</v>
       </c>
       <c r="L3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -13100,14 +13667,17 @@
       </c>
       <c r="L4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -13137,15 +13707,18 @@
         <v>4.0</v>
       </c>
       <c r="L5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -13176,14 +13749,17 @@
       </c>
       <c r="L6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -13213,15 +13789,18 @@
         <v>2.0</v>
       </c>
       <c r="L7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -13251,15 +13830,18 @@
         <v>7.0</v>
       </c>
       <c r="L8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -13289,15 +13871,18 @@
         <v>11.0</v>
       </c>
       <c r="L9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M9" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -13327,15 +13912,18 @@
         <v>1.0</v>
       </c>
       <c r="L10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -13365,15 +13953,18 @@
         <v>3.0</v>
       </c>
       <c r="L11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -13403,15 +13994,18 @@
         <v>8.0</v>
       </c>
       <c r="L12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13441,6 +14035,9 @@
         <v>5.0</v>
       </c>
       <c r="L13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -13460,7 +14057,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -13549,13 +14146,19 @@
       <c r="AE1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -13644,13 +14247,19 @@
       <c r="AE2" t="n">
         <v>8.0</v>
       </c>
+      <c r="AF2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" t="n">
         <v>15.0</v>
@@ -13739,13 +14348,19 @@
       <c r="AE3" t="n">
         <v>6.0</v>
       </c>
+      <c r="AF3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -13832,15 +14447,21 @@
         <v>7.0</v>
       </c>
       <c r="AE4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -13929,13 +14550,19 @@
       <c r="AE5" t="n">
         <v>19.0</v>
       </c>
+      <c r="AF5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -14024,13 +14651,19 @@
       <c r="AE6" t="n">
         <v>18.0</v>
       </c>
+      <c r="AF6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -14117,15 +14750,21 @@
         <v>9.0</v>
       </c>
       <c r="AE7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -14213,14 +14852,20 @@
       </c>
       <c r="AE8" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -14309,13 +14954,19 @@
       <c r="AE9" t="n">
         <v>15.0</v>
       </c>
+      <c r="AF9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -14402,15 +15053,21 @@
         <v>4.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -14499,13 +15156,19 @@
       <c r="AE11" t="n">
         <v>16.0</v>
       </c>
+      <c r="AF11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -14594,13 +15257,19 @@
       <c r="AE12" t="n">
         <v>17.0</v>
       </c>
+      <c r="AF12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -14689,13 +15358,19 @@
       <c r="AE13" t="n">
         <v>5.0</v>
       </c>
+      <c r="AF13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -14782,15 +15457,21 @@
         <v>2.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -14879,13 +15560,19 @@
       <c r="AE15" t="n">
         <v>10.0</v>
       </c>
+      <c r="AF15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -14974,13 +15661,19 @@
       <c r="AE16" t="n">
         <v>11.0</v>
       </c>
+      <c r="AF16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -15069,13 +15762,19 @@
       <c r="AE17" t="n">
         <v>2.0</v>
       </c>
+      <c r="AF17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -15164,13 +15863,19 @@
       <c r="AE18" t="n">
         <v>20.0</v>
       </c>
+      <c r="AF18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -15259,13 +15964,19 @@
       <c r="AE19" t="n">
         <v>1.0</v>
       </c>
+      <c r="AF19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -15353,14 +16064,20 @@
       </c>
       <c r="AE20" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -15448,6 +16165,12 @@
       </c>
       <c r="AE21" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -15466,7 +16189,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15525,13 +16248,16 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -15588,15 +16314,18 @@
         <v>9.0</v>
       </c>
       <c r="U2" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -15653,15 +16382,18 @@
         <v>14.0</v>
       </c>
       <c r="U3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V3" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -15718,15 +16450,18 @@
         <v>10.0</v>
       </c>
       <c r="U4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -15783,15 +16518,18 @@
         <v>8.0</v>
       </c>
       <c r="U5" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -15848,15 +16586,18 @@
         <v>12.0</v>
       </c>
       <c r="U6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="V6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -15915,13 +16656,16 @@
       <c r="U7" t="n">
         <v>17.0</v>
       </c>
+      <c r="V7" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -15980,13 +16724,16 @@
       <c r="U8" t="n">
         <v>16.0</v>
       </c>
+      <c r="V8" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -16045,13 +16792,16 @@
       <c r="U9" t="n">
         <v>18.0</v>
       </c>
+      <c r="V9" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -16108,15 +16858,18 @@
         <v>5.0</v>
       </c>
       <c r="U10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16173,15 +16926,18 @@
         <v>6.0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -16238,15 +16994,18 @@
         <v>2.0</v>
       </c>
       <c r="U12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -16305,13 +17064,16 @@
       <c r="U13" t="n">
         <v>4.0</v>
       </c>
+      <c r="V13" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -16368,15 +17130,18 @@
         <v>3.0</v>
       </c>
       <c r="U14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V14" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -16433,15 +17198,18 @@
         <v>13.0</v>
       </c>
       <c r="U15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="V15" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C16" t="n">
         <v>11.0</v>
@@ -16498,15 +17266,18 @@
         <v>11.0</v>
       </c>
       <c r="U16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V16" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -16563,15 +17334,18 @@
         <v>15.0</v>
       </c>
       <c r="U17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="V17" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -16628,15 +17402,18 @@
         <v>1.0</v>
       </c>
       <c r="U18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -16693,7 +17470,10 @@
         <v>7.0</v>
       </c>
       <c r="U19" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -16712,7 +17492,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16747,13 +17527,16 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
         <v>9.0</v>
@@ -16786,15 +17569,18 @@
         <v>11.0</v>
       </c>
       <c r="M2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N2" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -16828,14 +17614,17 @@
       </c>
       <c r="M3" t="n">
         <v>5.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -16869,14 +17658,17 @@
       </c>
       <c r="M4" t="n">
         <v>10.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -16910,14 +17702,17 @@
       </c>
       <c r="M5" t="n">
         <v>6.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -16951,14 +17746,17 @@
       </c>
       <c r="M6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -16991,15 +17789,18 @@
         <v>12.0</v>
       </c>
       <c r="M7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N7" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -17033,14 +17834,17 @@
       </c>
       <c r="M8" t="n">
         <v>8.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -17073,15 +17877,18 @@
         <v>2.0</v>
       </c>
       <c r="M9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -17115,14 +17922,17 @@
       </c>
       <c r="M10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -17155,15 +17965,18 @@
         <v>1.0</v>
       </c>
       <c r="M11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -17196,15 +18009,18 @@
         <v>5.0</v>
       </c>
       <c r="M12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -17237,6 +18053,9 @@
         <v>3.0</v>
       </c>
       <c r="M13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -17256,7 +18075,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17333,13 +18152,16 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -17414,15 +18236,18 @@
         <v>4.0</v>
       </c>
       <c r="AA2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -17497,15 +18322,18 @@
         <v>5.0</v>
       </c>
       <c r="AA3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -17580,15 +18408,18 @@
         <v>12.0</v>
       </c>
       <c r="AA4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -17663,15 +18494,18 @@
         <v>1.0</v>
       </c>
       <c r="AA5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -17746,15 +18580,18 @@
         <v>3.0</v>
       </c>
       <c r="AA6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" t="n">
         <v>11.0</v>
@@ -17830,14 +18667,17 @@
       </c>
       <c r="AA7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -17913,14 +18753,17 @@
       </c>
       <c r="AA8" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -17995,15 +18838,18 @@
         <v>2.0</v>
       </c>
       <c r="AA9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
         <v>6.0</v>
@@ -18078,15 +18924,18 @@
         <v>11.0</v>
       </c>
       <c r="AA10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -18161,15 +19010,18 @@
         <v>7.0</v>
       </c>
       <c r="AA11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -18244,15 +19096,18 @@
         <v>6.0</v>
       </c>
       <c r="AA12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C13" t="n">
         <v>8.0</v>
@@ -18327,6 +19182,9 @@
         <v>10.0</v>
       </c>
       <c r="AA13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -18346,7 +19204,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18441,13 +19299,16 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -18540,15 +19401,18 @@
         <v>6.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -18641,15 +19505,18 @@
         <v>2.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -18742,15 +19609,18 @@
         <v>8.0</v>
       </c>
       <c r="AG4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -18844,14 +19714,17 @@
       </c>
       <c r="AG5" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C6" t="n">
         <v>7.0</v>
@@ -18944,15 +19817,18 @@
         <v>10.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19045,15 +19921,18 @@
         <v>1.0</v>
       </c>
       <c r="AG7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" t="n">
         <v>8.0</v>
@@ -19146,15 +20025,18 @@
         <v>7.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C9" t="n">
         <v>9.0</v>
@@ -19247,15 +20129,18 @@
         <v>5.0</v>
       </c>
       <c r="AG9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -19349,14 +20234,17 @@
       </c>
       <c r="AG10" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -19449,6 +20337,9 @@
         <v>9.0</v>
       </c>
       <c r="AG11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -19468,7 +20359,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19563,13 +20454,16 @@
       <c r="AG1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -19662,15 +20556,18 @@
         <v>16.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -19763,15 +20660,18 @@
         <v>4.0</v>
       </c>
       <c r="AG3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
         <v>14.0</v>
@@ -19866,13 +20766,16 @@
       <c r="AG4" t="n">
         <v>6.0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
         <v>15.0</v>
@@ -19965,15 +20868,18 @@
         <v>17.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -20066,15 +20972,18 @@
         <v>11.0</v>
       </c>
       <c r="AG6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C7" t="n">
         <v>9.0</v>
@@ -20169,13 +21078,16 @@
       <c r="AG7" t="n">
         <v>18.0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -20268,15 +21180,18 @@
         <v>5.0</v>
       </c>
       <c r="AG8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -20370,14 +21285,17 @@
       </c>
       <c r="AG9" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -20470,15 +21388,18 @@
         <v>2.0</v>
       </c>
       <c r="AG10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -20571,15 +21492,18 @@
         <v>13.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>5.0</v>
@@ -20672,15 +21596,18 @@
         <v>10.0</v>
       </c>
       <c r="AG12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AH12" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -20774,14 +21701,17 @@
       </c>
       <c r="AG13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -20876,13 +21806,16 @@
       <c r="AG14" t="n">
         <v>3.0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -20975,15 +21908,18 @@
         <v>14.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C16" t="n">
         <v>16.0</v>
@@ -21076,15 +22012,18 @@
         <v>15.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
         <v>17.0</v>
@@ -21177,15 +22116,18 @@
         <v>9.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -21280,13 +22222,16 @@
       <c r="AG18" t="n">
         <v>12.0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" t="n">
         <v>13.0</v>
@@ -21379,6 +22324,9 @@
         <v>1.0</v>
       </c>
       <c r="AG19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -21398,7 +22346,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21451,13 +22399,16 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C2" t="n">
         <v>13.0</v>
@@ -21508,15 +22459,18 @@
         <v>12.0</v>
       </c>
       <c r="S2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T2" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -21569,13 +22523,16 @@
       <c r="S3" t="n">
         <v>17.0</v>
       </c>
+      <c r="T3" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -21626,15 +22583,18 @@
         <v>1.0</v>
       </c>
       <c r="S4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -21686,14 +22646,17 @@
       </c>
       <c r="S5" t="n">
         <v>8.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C6" t="n">
         <v>9.0</v>
@@ -21744,15 +22707,18 @@
         <v>14.0</v>
       </c>
       <c r="S6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T6" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21803,15 +22769,18 @@
         <v>10.0</v>
       </c>
       <c r="S7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T7" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -21864,13 +22833,16 @@
       <c r="S8" t="n">
         <v>9.0</v>
       </c>
+      <c r="T8" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -21921,15 +22893,18 @@
         <v>15.0</v>
       </c>
       <c r="S9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T9" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C10" t="n">
         <v>14.0</v>
@@ -21982,13 +22957,16 @@
       <c r="S10" t="n">
         <v>15.0</v>
       </c>
+      <c r="T10" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -22039,15 +23017,18 @@
         <v>2.0</v>
       </c>
       <c r="S11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C12" t="n">
         <v>16.0</v>
@@ -22098,15 +23079,18 @@
         <v>11.0</v>
       </c>
       <c r="S12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T12" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -22158,14 +23142,17 @@
       </c>
       <c r="S13" t="n">
         <v>4.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -22217,14 +23204,17 @@
       </c>
       <c r="S14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -22277,13 +23267,16 @@
       <c r="S15" t="n">
         <v>18.0</v>
       </c>
+      <c r="T15" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -22334,15 +23327,18 @@
         <v>4.0</v>
       </c>
       <c r="S16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -22393,15 +23389,18 @@
         <v>6.0</v>
       </c>
       <c r="S17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T17" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C18" t="n">
         <v>18.0</v>
@@ -22454,13 +23453,16 @@
       <c r="S18" t="n">
         <v>5.0</v>
       </c>
+      <c r="T18" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C19" t="n">
         <v>12.0</v>
@@ -22511,6 +23513,9 @@
         <v>16.0</v>
       </c>
       <c r="S19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T19" t="n">
         <v>16.0</v>
       </c>
     </row>

--- a/NL/Roundmatrix.xlsx
+++ b/NL/Roundmatrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
   <si>
     <t>arg_teams</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>X41</t>
+  </si>
+  <si>
+    <t>X42</t>
   </si>
   <si>
     <t>1</t>
@@ -686,13 +689,16 @@
       <c r="AQ1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -815,15 +821,18 @@
         <v>27.0</v>
       </c>
       <c r="AQ2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AR2" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -946,15 +955,18 @@
         <v>4.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -1077,15 +1089,18 @@
         <v>22.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
         <v>21.0</v>
@@ -1208,15 +1223,18 @@
         <v>11.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
@@ -1339,15 +1357,18 @@
         <v>17.0</v>
       </c>
       <c r="AQ6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
         <v>22.0</v>
@@ -1470,15 +1491,18 @@
         <v>13.0</v>
       </c>
       <c r="AQ7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
         <v>12.0</v>
@@ -1601,15 +1625,18 @@
         <v>1.0</v>
       </c>
       <c r="AQ8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1732,15 +1759,18 @@
         <v>20.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
         <v>13.0</v>
@@ -1863,15 +1893,18 @@
         <v>23.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
         <v>23.0</v>
@@ -1994,15 +2027,18 @@
         <v>9.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -2125,15 +2161,18 @@
         <v>10.0</v>
       </c>
       <c r="AQ12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AR12" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="n">
         <v>14.0</v>
@@ -2256,15 +2295,18 @@
         <v>5.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
         <v>15.0</v>
@@ -2387,15 +2429,18 @@
         <v>15.0</v>
       </c>
       <c r="AQ14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR14" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -2518,15 +2563,18 @@
         <v>7.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>24.0</v>
@@ -2649,15 +2697,18 @@
         <v>16.0</v>
       </c>
       <c r="AQ16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AR16" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>25.0</v>
@@ -2780,15 +2831,18 @@
         <v>28.0</v>
       </c>
       <c r="AQ17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AR17" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -2911,15 +2965,18 @@
         <v>8.0</v>
       </c>
       <c r="AQ18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AR18" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
         <v>26.0</v>
@@ -3042,15 +3099,18 @@
         <v>19.0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" t="n">
         <v>6.0</v>
@@ -3173,15 +3233,18 @@
         <v>26.0</v>
       </c>
       <c r="AQ20" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AR20" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="n">
         <v>16.0</v>
@@ -3304,15 +3367,18 @@
         <v>2.0</v>
       </c>
       <c r="AQ21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR21" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="n">
         <v>27.0</v>
@@ -3435,15 +3501,18 @@
         <v>3.0</v>
       </c>
       <c r="AQ22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR22" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="n">
         <v>17.0</v>
@@ -3566,15 +3635,18 @@
         <v>21.0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -3697,15 +3769,18 @@
         <v>12.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="n">
         <v>7.0</v>
@@ -3828,15 +3903,18 @@
         <v>14.0</v>
       </c>
       <c r="AQ25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AR25" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -3959,15 +4037,18 @@
         <v>25.0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -4090,15 +4171,18 @@
         <v>6.0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="n">
         <v>8.0</v>
@@ -4221,15 +4305,18 @@
         <v>18.0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" t="n">
         <v>9.0</v>
@@ -4353,6 +4440,9 @@
       </c>
       <c r="AQ29" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4461,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4408,14 +4498,20 @@
       </c>
       <c r="N1" t="s">
         <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -4451,15 +4547,21 @@
         <v>5.0</v>
       </c>
       <c r="N2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
@@ -4495,15 +4597,21 @@
         <v>12.0</v>
       </c>
       <c r="N3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -4540,14 +4648,20 @@
       </c>
       <c r="N4" t="n">
         <v>9.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -4583,15 +4697,21 @@
         <v>4.0</v>
       </c>
       <c r="N5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -4627,15 +4747,21 @@
         <v>9.0</v>
       </c>
       <c r="N6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -4671,15 +4797,21 @@
         <v>3.0</v>
       </c>
       <c r="N7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -4715,15 +4847,21 @@
         <v>6.0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -4759,15 +4897,21 @@
         <v>11.0</v>
       </c>
       <c r="N9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P9" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -4803,15 +4947,21 @@
         <v>1.0</v>
       </c>
       <c r="N10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -4847,15 +4997,21 @@
         <v>2.0</v>
       </c>
       <c r="N11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" t="n">
         <v>12.0</v>
@@ -4891,15 +5047,21 @@
         <v>7.0</v>
       </c>
       <c r="N12" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -4936,6 +5098,12 @@
       </c>
       <c r="N13" t="n">
         <v>8.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +5122,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5051,14 +5219,23 @@
       </c>
       <c r="AH1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" t="n">
         <v>14.0</v>
@@ -5155,14 +5332,23 @@
       </c>
       <c r="AH2" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
         <v>15.0</v>
@@ -5258,15 +5444,24 @@
         <v>6.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -5362,15 +5557,24 @@
         <v>7.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" t="n">
         <v>8.0</v>
@@ -5466,15 +5670,24 @@
         <v>18.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -5570,15 +5783,24 @@
         <v>19.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AK6" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="n">
         <v>16.0</v>
@@ -5674,15 +5896,24 @@
         <v>9.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AK7" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
         <v>9.0</v>
@@ -5778,15 +6009,24 @@
         <v>13.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AK8" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -5883,14 +6123,23 @@
       </c>
       <c r="AH9" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -5987,14 +6236,23 @@
       </c>
       <c r="AH10" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -6091,14 +6349,23 @@
       </c>
       <c r="AH11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -6195,14 +6462,23 @@
       </c>
       <c r="AH12" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6299,14 +6575,23 @@
       </c>
       <c r="AH13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -6402,15 +6687,24 @@
         <v>5.0</v>
       </c>
       <c r="AH14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" t="n">
         <v>17.0</v>
@@ -6507,14 +6801,23 @@
       </c>
       <c r="AH15" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" t="n">
         <v>18.0</v>
@@ -6610,15 +6913,24 @@
         <v>14.0</v>
       </c>
       <c r="AH16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" t="n">
         <v>19.0</v>
@@ -6714,15 +7026,24 @@
         <v>2.0</v>
       </c>
       <c r="AH17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -6818,15 +7139,24 @@
         <v>20.0</v>
       </c>
       <c r="AH18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" t="n">
         <v>20.0</v>
@@ -6922,15 +7252,24 @@
         <v>1.0</v>
       </c>
       <c r="AH19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" t="n">
         <v>13.0</v>
@@ -7026,15 +7365,24 @@
         <v>11.0</v>
       </c>
       <c r="AH20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" t="n">
         <v>7.0</v>
@@ -7131,6 +7479,15 @@
       </c>
       <c r="AH21" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -7149,7 +7506,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7210,14 +7567,23 @@
       </c>
       <c r="V1" t="s">
         <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" t="n">
         <v>12.0</v>
@@ -7277,15 +7643,24 @@
         <v>8.0</v>
       </c>
       <c r="V2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -7346,14 +7721,23 @@
       </c>
       <c r="V3" t="n">
         <v>13.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -7413,15 +7797,24 @@
         <v>10.0</v>
       </c>
       <c r="V4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" t="n">
         <v>13.0</v>
@@ -7482,14 +7875,23 @@
       </c>
       <c r="V5" t="n">
         <v>9.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="n">
         <v>8.0</v>
@@ -7549,15 +7951,24 @@
         <v>12.0</v>
       </c>
       <c r="V6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" t="n">
         <v>14.0</v>
@@ -7618,14 +8029,23 @@
       </c>
       <c r="V7" t="n">
         <v>17.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" t="n">
         <v>15.0</v>
@@ -7686,14 +8106,23 @@
       </c>
       <c r="V8" t="n">
         <v>16.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" t="n">
         <v>16.0</v>
@@ -7753,15 +8182,24 @@
         <v>18.0</v>
       </c>
       <c r="V9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
@@ -7822,14 +8260,23 @@
       </c>
       <c r="V10" t="n">
         <v>6.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -7890,14 +8337,23 @@
       </c>
       <c r="V11" t="n">
         <v>7.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -7958,14 +8414,23 @@
       </c>
       <c r="V12" t="n">
         <v>2.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="n">
         <v>17.0</v>
@@ -8026,14 +8491,23 @@
       </c>
       <c r="V13" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -8093,15 +8567,24 @@
         <v>3.0</v>
       </c>
       <c r="V14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" t="n">
         <v>5.0</v>
@@ -8162,14 +8645,23 @@
       </c>
       <c r="V15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" t="n">
         <v>11.0</v>
@@ -8229,15 +8721,24 @@
         <v>11.0</v>
       </c>
       <c r="V16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" t="n">
         <v>6.0</v>
@@ -8297,15 +8798,24 @@
         <v>15.0</v>
       </c>
       <c r="V17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n">
         <v>7.0</v>
@@ -8366,14 +8876,23 @@
       </c>
       <c r="V18" t="n">
         <v>1.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" t="n">
         <v>18.0</v>
@@ -8434,6 +8953,15 @@
       </c>
       <c r="V19" t="n">
         <v>5.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -8452,7 +8980,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -8492,14 +9020,20 @@
       </c>
       <c r="O1" t="s">
         <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" t="n">
         <v>9.0</v>
@@ -8538,15 +9072,21 @@
         <v>11.0</v>
       </c>
       <c r="O2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -8586,14 +9126,20 @@
       </c>
       <c r="O3" t="n">
         <v>6.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -8633,14 +9179,20 @@
       </c>
       <c r="O4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
         <v>11.0</v>
@@ -8680,14 +9232,20 @@
       </c>
       <c r="O5" t="n">
         <v>7.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -8726,15 +9284,21 @@
         <v>9.0</v>
       </c>
       <c r="O6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -8773,15 +9337,21 @@
         <v>12.0</v>
       </c>
       <c r="O7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -8821,14 +9391,20 @@
       </c>
       <c r="O8" t="n">
         <v>5.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -8867,15 +9443,21 @@
         <v>1.0</v>
       </c>
       <c r="O9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="n">
         <v>12.0</v>
@@ -8915,14 +9497,20 @@
       </c>
       <c r="O10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" t="n">
         <v>7.0</v>
@@ -8962,14 +9550,20 @@
       </c>
       <c r="O11" t="n">
         <v>2.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -9009,14 +9603,20 @@
       </c>
       <c r="O12" t="n">
         <v>4.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -9056,6 +9656,12 @@
       </c>
       <c r="O13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
